--- a/file/reference.xlsx
+++ b/file/reference.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="0"/>
+    <s:workbookView activeTab="2"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -9170,7 +9170,7 @@
   </s:sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -31152,7 +31152,7 @@
   </s:sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -37213,7 +37213,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A2:C911"/>
+  <dimension ref="A2:D911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37224,9 +37224,10 @@
     <col max="1" min="1" style="1"/>
     <col max="2" min="2" style="1"/>
     <col max="3" min="3" style="1"/>
+    <col max="4" min="4" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="1" spans="1:3">
+    <row r="2" s="1" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -37236,8 +37237,11 @@
       <c r="C2" t="s">
         <v>2737</v>
       </c>
-    </row>
-    <row r="3" s="1" spans="1:3">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -37247,11 +37251,14 @@
       <c r="C3" t="s">
         <v>2739</v>
       </c>
-    </row>
-    <row hidden="1" r="4" s="1" spans="1:3">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row hidden="1" r="4" s="1" spans="1:4">
       <c r="A4" t="s"/>
     </row>
-    <row r="5" s="1" spans="1:3">
+    <row r="5" s="1" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -37261,17 +37268,20 @@
       <c r="C5" t="s">
         <v>2741</v>
       </c>
-    </row>
-    <row hidden="1" r="6" s="1" spans="1:3">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row hidden="1" r="6" s="1" spans="1:4">
       <c r="A6" t="s"/>
     </row>
-    <row hidden="1" r="7" s="1" spans="1:3">
+    <row hidden="1" r="7" s="1" spans="1:4">
       <c r="A7" t="s"/>
     </row>
-    <row hidden="1" r="8" s="1" spans="1:3">
+    <row hidden="1" r="8" s="1" spans="1:4">
       <c r="A8" t="s"/>
     </row>
-    <row r="9" s="1" spans="1:3">
+    <row r="9" s="1" spans="1:4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -37281,14 +37291,17 @@
       <c r="C9" t="s">
         <v>2743</v>
       </c>
-    </row>
-    <row hidden="1" r="10" s="1" spans="1:3">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row hidden="1" r="10" s="1" spans="1:4">
       <c r="A10" t="s"/>
     </row>
-    <row hidden="1" r="11" s="1" spans="1:3">
+    <row hidden="1" r="11" s="1" spans="1:4">
       <c r="A11" t="s"/>
     </row>
-    <row r="12" s="1" spans="1:3">
+    <row r="12" s="1" spans="1:4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -37298,41 +37311,44 @@
       <c r="C12" t="s">
         <v>2745</v>
       </c>
-    </row>
-    <row hidden="1" r="13" s="1" spans="1:3">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row hidden="1" r="13" s="1" spans="1:4">
       <c r="A13" t="s"/>
     </row>
-    <row hidden="1" r="14" s="1" spans="1:3">
+    <row hidden="1" r="14" s="1" spans="1:4">
       <c r="A14" t="s"/>
     </row>
-    <row hidden="1" r="15" s="1" spans="1:3">
+    <row hidden="1" r="15" s="1" spans="1:4">
       <c r="A15" t="s"/>
     </row>
-    <row hidden="1" r="16" s="1" spans="1:3">
+    <row hidden="1" r="16" s="1" spans="1:4">
       <c r="A16" t="s"/>
     </row>
-    <row hidden="1" r="17" s="1" spans="1:3">
+    <row hidden="1" r="17" s="1" spans="1:4">
       <c r="A17" t="s"/>
     </row>
-    <row hidden="1" r="18" s="1" spans="1:3">
+    <row hidden="1" r="18" s="1" spans="1:4">
       <c r="A18" t="s"/>
     </row>
-    <row hidden="1" r="19" s="1" spans="1:3">
+    <row hidden="1" r="19" s="1" spans="1:4">
       <c r="A19" t="s"/>
     </row>
-    <row hidden="1" r="20" s="1" spans="1:3">
+    <row hidden="1" r="20" s="1" spans="1:4">
       <c r="A20" t="s"/>
     </row>
-    <row hidden="1" r="21" s="1" spans="1:3">
+    <row hidden="1" r="21" s="1" spans="1:4">
       <c r="A21" t="s"/>
     </row>
-    <row hidden="1" r="22" s="1" spans="1:3">
+    <row hidden="1" r="22" s="1" spans="1:4">
       <c r="A22" t="s"/>
     </row>
-    <row hidden="1" r="23" s="1" spans="1:3">
+    <row hidden="1" r="23" s="1" spans="1:4">
       <c r="A23" t="s"/>
     </row>
-    <row r="24" s="1" spans="1:3">
+    <row r="24" s="1" spans="1:4">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -37342,8 +37358,11 @@
       <c r="C24" t="s">
         <v>2747</v>
       </c>
-    </row>
-    <row r="25" s="1" spans="1:3">
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" s="1" spans="1:4">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -37353,17 +37372,20 @@
       <c r="C25" t="s">
         <v>2747</v>
       </c>
-    </row>
-    <row hidden="1" r="26" s="1" spans="1:3">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row hidden="1" r="26" s="1" spans="1:4">
       <c r="A26" t="s"/>
     </row>
-    <row hidden="1" r="27" s="1" spans="1:3">
+    <row hidden="1" r="27" s="1" spans="1:4">
       <c r="A27" t="s"/>
     </row>
-    <row hidden="1" r="28" s="1" spans="1:3">
+    <row hidden="1" r="28" s="1" spans="1:4">
       <c r="A28" t="s"/>
     </row>
-    <row r="29" s="1" spans="1:3">
+    <row r="29" s="1" spans="1:4">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -37373,8 +37395,11 @@
       <c r="C29" t="s">
         <v>2749</v>
       </c>
-    </row>
-    <row r="30" s="1" spans="1:3">
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" s="1" spans="1:4">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -37384,8 +37409,11 @@
       <c r="C30" t="s">
         <v>2751</v>
       </c>
-    </row>
-    <row r="31" s="1" spans="1:3">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" s="1" spans="1:4">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -37395,14 +37423,17 @@
       <c r="C31" t="s">
         <v>2753</v>
       </c>
-    </row>
-    <row hidden="1" r="32" s="1" spans="1:3">
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row hidden="1" r="32" s="1" spans="1:4">
       <c r="A32" t="s"/>
     </row>
-    <row hidden="1" r="33" s="1" spans="1:3">
+    <row hidden="1" r="33" s="1" spans="1:4">
       <c r="A33" t="s"/>
     </row>
-    <row r="34" s="1" spans="1:3">
+    <row r="34" s="1" spans="1:4">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -37412,23 +37443,26 @@
       <c r="C34" t="s">
         <v>2755</v>
       </c>
-    </row>
-    <row hidden="1" r="35" s="1" spans="1:3">
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row hidden="1" r="35" s="1" spans="1:4">
       <c r="A35" t="s"/>
     </row>
-    <row hidden="1" r="36" s="1" spans="1:3">
+    <row hidden="1" r="36" s="1" spans="1:4">
       <c r="A36" t="s"/>
     </row>
-    <row hidden="1" r="37" s="1" spans="1:3">
+    <row hidden="1" r="37" s="1" spans="1:4">
       <c r="A37" t="s"/>
     </row>
-    <row hidden="1" r="38" s="1" spans="1:3">
+    <row hidden="1" r="38" s="1" spans="1:4">
       <c r="A38" t="s"/>
     </row>
-    <row hidden="1" r="39" s="1" spans="1:3">
+    <row hidden="1" r="39" s="1" spans="1:4">
       <c r="A39" t="s"/>
     </row>
-    <row r="40" s="1" spans="1:3">
+    <row r="40" s="1" spans="1:4">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -37438,14 +37472,17 @@
       <c r="C40" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row hidden="1" r="41" s="1" spans="1:3">
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row hidden="1" r="41" s="1" spans="1:4">
       <c r="A41" t="s"/>
     </row>
-    <row hidden="1" r="42" s="1" spans="1:3">
+    <row hidden="1" r="42" s="1" spans="1:4">
       <c r="A42" t="s"/>
     </row>
-    <row r="43" s="1" spans="1:3">
+    <row r="43" s="1" spans="1:4">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -37455,14 +37492,17 @@
       <c r="C43" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row hidden="1" r="44" s="1" spans="1:3">
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row hidden="1" r="44" s="1" spans="1:4">
       <c r="A44" t="s"/>
     </row>
-    <row hidden="1" r="45" s="1" spans="1:3">
+    <row hidden="1" r="45" s="1" spans="1:4">
       <c r="A45" t="s"/>
     </row>
-    <row r="46" s="1" spans="1:3">
+    <row r="46" s="1" spans="1:4">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -37470,20 +37510,23 @@
         <v>2760</v>
       </c>
       <c r="C46" t="s"/>
-    </row>
-    <row hidden="1" r="47" s="1" spans="1:3">
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row hidden="1" r="47" s="1" spans="1:4">
       <c r="A47" t="s"/>
     </row>
-    <row hidden="1" r="48" s="1" spans="1:3">
+    <row hidden="1" r="48" s="1" spans="1:4">
       <c r="A48" t="s"/>
     </row>
-    <row hidden="1" r="49" s="1" spans="1:3">
+    <row hidden="1" r="49" s="1" spans="1:4">
       <c r="A49" t="s"/>
     </row>
-    <row hidden="1" r="50" s="1" spans="1:3">
+    <row hidden="1" r="50" s="1" spans="1:4">
       <c r="A50" t="s"/>
     </row>
-    <row r="51" s="1" spans="1:3">
+    <row r="51" s="1" spans="1:4">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -37493,17 +37536,20 @@
       <c r="C51" t="s">
         <v>2762</v>
       </c>
-    </row>
-    <row hidden="1" r="52" s="1" spans="1:3">
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row hidden="1" r="52" s="1" spans="1:4">
       <c r="A52" t="s"/>
     </row>
-    <row hidden="1" r="53" s="1" spans="1:3">
+    <row hidden="1" r="53" s="1" spans="1:4">
       <c r="A53" t="s"/>
     </row>
-    <row hidden="1" r="54" s="1" spans="1:3">
+    <row hidden="1" r="54" s="1" spans="1:4">
       <c r="A54" t="s"/>
     </row>
-    <row r="55" s="1" spans="1:3">
+    <row r="55" s="1" spans="1:4">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -37513,8 +37559,11 @@
       <c r="C55" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="56" s="1" spans="1:3">
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" s="1" spans="1:4">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -37524,11 +37573,14 @@
       <c r="C56" t="s">
         <v>2766</v>
       </c>
-    </row>
-    <row hidden="1" r="57" s="1" spans="1:3">
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row hidden="1" r="57" s="1" spans="1:4">
       <c r="A57" t="s"/>
     </row>
-    <row r="58" s="1" spans="1:3">
+    <row r="58" s="1" spans="1:4">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -37538,8 +37590,11 @@
       <c r="C58" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="59" s="1" spans="1:3">
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" s="1" spans="1:4">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -37549,11 +37604,14 @@
       <c r="C59" t="s">
         <v>2766</v>
       </c>
-    </row>
-    <row hidden="1" r="60" s="1" spans="1:3">
+      <c r="D59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row hidden="1" r="60" s="1" spans="1:4">
       <c r="A60" t="s"/>
     </row>
-    <row r="61" s="1" spans="1:3">
+    <row r="61" s="1" spans="1:4">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -37563,8 +37621,11 @@
       <c r="C61" t="s">
         <v>2764</v>
       </c>
-    </row>
-    <row r="62" s="1" spans="1:3">
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" s="1" spans="1:4">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -37574,20 +37635,23 @@
       <c r="C62" t="s">
         <v>2766</v>
       </c>
-    </row>
-    <row hidden="1" r="63" s="1" spans="1:3">
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row hidden="1" r="63" s="1" spans="1:4">
       <c r="A63" t="s"/>
     </row>
-    <row hidden="1" r="64" s="1" spans="1:3">
+    <row hidden="1" r="64" s="1" spans="1:4">
       <c r="A64" t="s"/>
     </row>
-    <row hidden="1" r="65" s="1" spans="1:3">
+    <row hidden="1" r="65" s="1" spans="1:4">
       <c r="A65" t="s"/>
     </row>
-    <row hidden="1" r="66" s="1" spans="1:3">
+    <row hidden="1" r="66" s="1" spans="1:4">
       <c r="A66" t="s"/>
     </row>
-    <row r="67" s="1" spans="1:3">
+    <row r="67" s="1" spans="1:4">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -37597,8 +37661,11 @@
       <c r="C67" t="s">
         <v>2768</v>
       </c>
-    </row>
-    <row r="68" s="1" spans="1:3">
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" s="1" spans="1:4">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -37608,17 +37675,20 @@
       <c r="C68" t="s">
         <v>2770</v>
       </c>
-    </row>
-    <row hidden="1" r="69" s="1" spans="1:3">
+      <c r="D68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row hidden="1" r="69" s="1" spans="1:4">
       <c r="A69" t="s"/>
     </row>
-    <row hidden="1" r="70" s="1" spans="1:3">
+    <row hidden="1" r="70" s="1" spans="1:4">
       <c r="A70" t="s"/>
     </row>
-    <row hidden="1" r="71" s="1" spans="1:3">
+    <row hidden="1" r="71" s="1" spans="1:4">
       <c r="A71" t="s"/>
     </row>
-    <row r="72" s="1" spans="1:3">
+    <row r="72" s="1" spans="1:4">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -37628,47 +37698,50 @@
       <c r="C72" t="s">
         <v>2772</v>
       </c>
-    </row>
-    <row hidden="1" r="73" s="1" spans="1:3">
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row hidden="1" r="73" s="1" spans="1:4">
       <c r="A73" t="s"/>
     </row>
-    <row hidden="1" r="74" s="1" spans="1:3">
+    <row hidden="1" r="74" s="1" spans="1:4">
       <c r="A74" t="s"/>
     </row>
-    <row hidden="1" r="75" s="1" spans="1:3">
+    <row hidden="1" r="75" s="1" spans="1:4">
       <c r="A75" t="s"/>
     </row>
-    <row hidden="1" r="76" s="1" spans="1:3">
+    <row hidden="1" r="76" s="1" spans="1:4">
       <c r="A76" t="s"/>
     </row>
-    <row hidden="1" r="77" s="1" spans="1:3">
+    <row hidden="1" r="77" s="1" spans="1:4">
       <c r="A77" t="s"/>
     </row>
-    <row hidden="1" r="78" s="1" spans="1:3">
+    <row hidden="1" r="78" s="1" spans="1:4">
       <c r="A78" t="s"/>
     </row>
-    <row hidden="1" r="79" s="1" spans="1:3">
+    <row hidden="1" r="79" s="1" spans="1:4">
       <c r="A79" t="s"/>
     </row>
-    <row hidden="1" r="80" s="1" spans="1:3">
+    <row hidden="1" r="80" s="1" spans="1:4">
       <c r="A80" t="s"/>
     </row>
-    <row hidden="1" r="81" s="1" spans="1:3">
+    <row hidden="1" r="81" s="1" spans="1:4">
       <c r="A81" t="s"/>
     </row>
-    <row hidden="1" r="82" s="1" spans="1:3">
+    <row hidden="1" r="82" s="1" spans="1:4">
       <c r="A82" t="s"/>
     </row>
-    <row hidden="1" r="83" s="1" spans="1:3">
+    <row hidden="1" r="83" s="1" spans="1:4">
       <c r="A83" t="s"/>
     </row>
-    <row hidden="1" r="84" s="1" spans="1:3">
+    <row hidden="1" r="84" s="1" spans="1:4">
       <c r="A84" t="s"/>
     </row>
-    <row hidden="1" r="85" s="1" spans="1:3">
+    <row hidden="1" r="85" s="1" spans="1:4">
       <c r="A85" t="s"/>
     </row>
-    <row r="86" s="1" spans="1:3">
+    <row r="86" s="1" spans="1:4">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -37678,8 +37751,11 @@
       <c r="C86" t="s">
         <v>2774</v>
       </c>
-    </row>
-    <row r="87" s="1" spans="1:3">
+      <c r="D86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" s="1" spans="1:4">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -37689,77 +37765,80 @@
       <c r="C87" t="s">
         <v>2776</v>
       </c>
-    </row>
-    <row hidden="1" r="88" s="1" spans="1:3">
+      <c r="D87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row hidden="1" r="88" s="1" spans="1:4">
       <c r="A88" t="s"/>
     </row>
-    <row hidden="1" r="89" s="1" spans="1:3">
+    <row hidden="1" r="89" s="1" spans="1:4">
       <c r="A89" t="s"/>
     </row>
-    <row hidden="1" r="90" s="1" spans="1:3">
+    <row hidden="1" r="90" s="1" spans="1:4">
       <c r="A90" t="s"/>
     </row>
-    <row hidden="1" r="91" s="1" spans="1:3">
+    <row hidden="1" r="91" s="1" spans="1:4">
       <c r="A91" t="s"/>
     </row>
-    <row hidden="1" r="92" s="1" spans="1:3">
+    <row hidden="1" r="92" s="1" spans="1:4">
       <c r="A92" t="s"/>
     </row>
-    <row hidden="1" r="93" s="1" spans="1:3">
+    <row hidden="1" r="93" s="1" spans="1:4">
       <c r="A93" t="s"/>
     </row>
-    <row hidden="1" r="94" s="1" spans="1:3">
+    <row hidden="1" r="94" s="1" spans="1:4">
       <c r="A94" t="s"/>
     </row>
-    <row hidden="1" r="95" s="1" spans="1:3">
+    <row hidden="1" r="95" s="1" spans="1:4">
       <c r="A95" t="s"/>
     </row>
-    <row hidden="1" r="96" s="1" spans="1:3">
+    <row hidden="1" r="96" s="1" spans="1:4">
       <c r="A96" t="s"/>
     </row>
-    <row hidden="1" r="97" s="1" spans="1:3">
+    <row hidden="1" r="97" s="1" spans="1:4">
       <c r="A97" t="s"/>
     </row>
-    <row hidden="1" r="98" s="1" spans="1:3">
+    <row hidden="1" r="98" s="1" spans="1:4">
       <c r="A98" t="s"/>
     </row>
-    <row hidden="1" r="99" s="1" spans="1:3">
+    <row hidden="1" r="99" s="1" spans="1:4">
       <c r="A99" t="s"/>
     </row>
-    <row hidden="1" r="100" s="1" spans="1:3">
+    <row hidden="1" r="100" s="1" spans="1:4">
       <c r="A100" t="s"/>
     </row>
-    <row hidden="1" r="101" s="1" spans="1:3">
+    <row hidden="1" r="101" s="1" spans="1:4">
       <c r="A101" t="s"/>
     </row>
-    <row hidden="1" r="102" s="1" spans="1:3">
+    <row hidden="1" r="102" s="1" spans="1:4">
       <c r="A102" t="s"/>
     </row>
-    <row hidden="1" r="103" s="1" spans="1:3">
+    <row hidden="1" r="103" s="1" spans="1:4">
       <c r="A103" t="s"/>
     </row>
-    <row hidden="1" r="104" s="1" spans="1:3">
+    <row hidden="1" r="104" s="1" spans="1:4">
       <c r="A104" t="s"/>
     </row>
-    <row hidden="1" r="105" s="1" spans="1:3">
+    <row hidden="1" r="105" s="1" spans="1:4">
       <c r="A105" t="s"/>
     </row>
-    <row hidden="1" r="106" s="1" spans="1:3">
+    <row hidden="1" r="106" s="1" spans="1:4">
       <c r="A106" t="s"/>
     </row>
-    <row hidden="1" r="107" s="1" spans="1:3">
+    <row hidden="1" r="107" s="1" spans="1:4">
       <c r="A107" t="s"/>
     </row>
-    <row hidden="1" r="108" s="1" spans="1:3">
+    <row hidden="1" r="108" s="1" spans="1:4">
       <c r="A108" t="s"/>
     </row>
-    <row hidden="1" r="109" s="1" spans="1:3">
+    <row hidden="1" r="109" s="1" spans="1:4">
       <c r="A109" t="s"/>
     </row>
-    <row hidden="1" r="110" s="1" spans="1:3">
+    <row hidden="1" r="110" s="1" spans="1:4">
       <c r="A110" t="s"/>
     </row>
-    <row r="111" s="1" spans="1:3">
+    <row r="111" s="1" spans="1:4">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -37769,26 +37848,29 @@
       <c r="C111" t="s">
         <v>2778</v>
       </c>
-    </row>
-    <row hidden="1" r="112" s="1" spans="1:3">
+      <c r="D111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row hidden="1" r="112" s="1" spans="1:4">
       <c r="A112" t="s"/>
     </row>
-    <row hidden="1" r="113" s="1" spans="1:3">
+    <row hidden="1" r="113" s="1" spans="1:4">
       <c r="A113" t="s"/>
     </row>
-    <row hidden="1" r="114" s="1" spans="1:3">
+    <row hidden="1" r="114" s="1" spans="1:4">
       <c r="A114" t="s"/>
     </row>
-    <row hidden="1" r="115" s="1" spans="1:3">
+    <row hidden="1" r="115" s="1" spans="1:4">
       <c r="A115" t="s"/>
     </row>
-    <row hidden="1" r="116" s="1" spans="1:3">
+    <row hidden="1" r="116" s="1" spans="1:4">
       <c r="A116" t="s"/>
     </row>
-    <row hidden="1" r="117" s="1" spans="1:3">
+    <row hidden="1" r="117" s="1" spans="1:4">
       <c r="A117" t="s"/>
     </row>
-    <row r="118" s="1" spans="1:3">
+    <row r="118" s="1" spans="1:4">
       <c r="A118" t="s">
         <v>217</v>
       </c>
@@ -37796,17 +37878,20 @@
         <v>2779</v>
       </c>
       <c r="C118" t="s"/>
-    </row>
-    <row hidden="1" r="119" s="1" spans="1:3">
+      <c r="D118" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row hidden="1" r="119" s="1" spans="1:4">
       <c r="A119" t="s"/>
     </row>
-    <row hidden="1" r="120" s="1" spans="1:3">
+    <row hidden="1" r="120" s="1" spans="1:4">
       <c r="A120" t="s"/>
     </row>
-    <row hidden="1" r="121" s="1" spans="1:3">
+    <row hidden="1" r="121" s="1" spans="1:4">
       <c r="A121" t="s"/>
     </row>
-    <row r="122" s="1" spans="1:3">
+    <row r="122" s="1" spans="1:4">
       <c r="A122" t="s">
         <v>225</v>
       </c>
@@ -37816,8 +37901,11 @@
       <c r="C122" t="s">
         <v>2781</v>
       </c>
-    </row>
-    <row r="123" s="1" spans="1:3">
+      <c r="D122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" s="1" spans="1:4">
       <c r="A123" t="s">
         <v>228</v>
       </c>
@@ -37827,11 +37915,14 @@
       <c r="C123" t="s">
         <v>2783</v>
       </c>
-    </row>
-    <row hidden="1" r="124" s="1" spans="1:3">
+      <c r="D123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row hidden="1" r="124" s="1" spans="1:4">
       <c r="A124" t="s"/>
     </row>
-    <row r="125" s="1" spans="1:3">
+    <row r="125" s="1" spans="1:4">
       <c r="A125" t="s">
         <v>228</v>
       </c>
@@ -37841,50 +37932,53 @@
       <c r="C125" t="s">
         <v>2783</v>
       </c>
-    </row>
-    <row hidden="1" r="126" s="1" spans="1:3">
+      <c r="D125" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row hidden="1" r="126" s="1" spans="1:4">
       <c r="A126" t="s"/>
     </row>
-    <row hidden="1" r="127" s="1" spans="1:3">
+    <row hidden="1" r="127" s="1" spans="1:4">
       <c r="A127" t="s"/>
     </row>
-    <row hidden="1" r="128" s="1" spans="1:3">
+    <row hidden="1" r="128" s="1" spans="1:4">
       <c r="A128" t="s"/>
     </row>
-    <row hidden="1" r="129" s="1" spans="1:3">
+    <row hidden="1" r="129" s="1" spans="1:4">
       <c r="A129" t="s"/>
     </row>
-    <row hidden="1" r="130" s="1" spans="1:3">
+    <row hidden="1" r="130" s="1" spans="1:4">
       <c r="A130" t="s"/>
     </row>
-    <row hidden="1" r="131" s="1" spans="1:3">
+    <row hidden="1" r="131" s="1" spans="1:4">
       <c r="A131" t="s"/>
     </row>
-    <row hidden="1" r="132" s="1" spans="1:3">
+    <row hidden="1" r="132" s="1" spans="1:4">
       <c r="A132" t="s"/>
     </row>
-    <row hidden="1" r="133" s="1" spans="1:3">
+    <row hidden="1" r="133" s="1" spans="1:4">
       <c r="A133" t="s"/>
     </row>
-    <row hidden="1" r="134" s="1" spans="1:3">
+    <row hidden="1" r="134" s="1" spans="1:4">
       <c r="A134" t="s"/>
     </row>
-    <row hidden="1" r="135" s="1" spans="1:3">
+    <row hidden="1" r="135" s="1" spans="1:4">
       <c r="A135" t="s"/>
     </row>
-    <row hidden="1" r="136" s="1" spans="1:3">
+    <row hidden="1" r="136" s="1" spans="1:4">
       <c r="A136" t="s"/>
     </row>
-    <row hidden="1" r="137" s="1" spans="1:3">
+    <row hidden="1" r="137" s="1" spans="1:4">
       <c r="A137" t="s"/>
     </row>
-    <row hidden="1" r="138" s="1" spans="1:3">
+    <row hidden="1" r="138" s="1" spans="1:4">
       <c r="A138" t="s"/>
     </row>
-    <row hidden="1" r="139" s="1" spans="1:3">
+    <row hidden="1" r="139" s="1" spans="1:4">
       <c r="A139" t="s"/>
     </row>
-    <row r="140" s="1" spans="1:3">
+    <row r="140" s="1" spans="1:4">
       <c r="A140" t="s">
         <v>248</v>
       </c>
@@ -37894,14 +37988,17 @@
       <c r="C140" t="s">
         <v>2785</v>
       </c>
-    </row>
-    <row hidden="1" r="141" s="1" spans="1:3">
+      <c r="D140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row hidden="1" r="141" s="1" spans="1:4">
       <c r="A141" t="s"/>
     </row>
-    <row hidden="1" r="142" s="1" spans="1:3">
+    <row hidden="1" r="142" s="1" spans="1:4">
       <c r="A142" t="s"/>
     </row>
-    <row r="143" s="1" spans="1:3">
+    <row r="143" s="1" spans="1:4">
       <c r="A143" t="s">
         <v>254</v>
       </c>
@@ -37911,83 +38008,86 @@
       <c r="C143" t="s">
         <v>2787</v>
       </c>
-    </row>
-    <row hidden="1" r="144" s="1" spans="1:3">
+      <c r="D143" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row hidden="1" r="144" s="1" spans="1:4">
       <c r="A144" t="s"/>
     </row>
-    <row hidden="1" r="145" s="1" spans="1:3">
+    <row hidden="1" r="145" s="1" spans="1:4">
       <c r="A145" t="s"/>
     </row>
-    <row hidden="1" r="146" s="1" spans="1:3">
+    <row hidden="1" r="146" s="1" spans="1:4">
       <c r="A146" t="s"/>
     </row>
-    <row hidden="1" r="147" s="1" spans="1:3">
+    <row hidden="1" r="147" s="1" spans="1:4">
       <c r="A147" t="s"/>
     </row>
-    <row hidden="1" r="148" s="1" spans="1:3">
+    <row hidden="1" r="148" s="1" spans="1:4">
       <c r="A148" t="s"/>
     </row>
-    <row hidden="1" r="149" s="1" spans="1:3">
+    <row hidden="1" r="149" s="1" spans="1:4">
       <c r="A149" t="s"/>
     </row>
-    <row hidden="1" r="150" s="1" spans="1:3">
+    <row hidden="1" r="150" s="1" spans="1:4">
       <c r="A150" t="s"/>
     </row>
-    <row hidden="1" r="151" s="1" spans="1:3">
+    <row hidden="1" r="151" s="1" spans="1:4">
       <c r="A151" t="s"/>
     </row>
-    <row hidden="1" r="152" s="1" spans="1:3">
+    <row hidden="1" r="152" s="1" spans="1:4">
       <c r="A152" t="s"/>
     </row>
-    <row hidden="1" r="153" s="1" spans="1:3">
+    <row hidden="1" r="153" s="1" spans="1:4">
       <c r="A153" t="s"/>
     </row>
-    <row hidden="1" r="154" s="1" spans="1:3">
+    <row hidden="1" r="154" s="1" spans="1:4">
       <c r="A154" t="s"/>
     </row>
-    <row hidden="1" r="155" s="1" spans="1:3">
+    <row hidden="1" r="155" s="1" spans="1:4">
       <c r="A155" t="s"/>
     </row>
-    <row hidden="1" r="156" s="1" spans="1:3">
+    <row hidden="1" r="156" s="1" spans="1:4">
       <c r="A156" t="s"/>
     </row>
-    <row hidden="1" r="157" s="1" spans="1:3">
+    <row hidden="1" r="157" s="1" spans="1:4">
       <c r="A157" t="s"/>
     </row>
-    <row hidden="1" r="158" s="1" spans="1:3">
+    <row hidden="1" r="158" s="1" spans="1:4">
       <c r="A158" t="s"/>
     </row>
-    <row hidden="1" r="159" s="1" spans="1:3">
+    <row hidden="1" r="159" s="1" spans="1:4">
       <c r="A159" t="s"/>
     </row>
-    <row hidden="1" r="160" s="1" spans="1:3">
+    <row hidden="1" r="160" s="1" spans="1:4">
       <c r="A160" t="s"/>
     </row>
-    <row hidden="1" r="161" s="1" spans="1:3">
+    <row hidden="1" r="161" s="1" spans="1:4">
       <c r="A161" t="s"/>
     </row>
-    <row hidden="1" r="162" s="1" spans="1:3">
+    <row hidden="1" r="162" s="1" spans="1:4">
       <c r="A162" t="s"/>
     </row>
-    <row hidden="1" r="163" s="1" spans="1:3">
+    <row hidden="1" r="163" s="1" spans="1:4">
       <c r="A163" t="s"/>
     </row>
-    <row hidden="1" r="164" s="1" spans="1:3">
+    <row hidden="1" r="164" s="1" spans="1:4">
       <c r="A164" t="s"/>
     </row>
-    <row hidden="1" r="165" s="1" spans="1:3">
+    <row hidden="1" r="165" s="1" spans="1:4">
       <c r="A165" t="s"/>
     </row>
-    <row hidden="1" r="166" s="1" spans="1:3">
+    <row hidden="1" r="166" s="1" spans="1:4">
       <c r="A166" t="s"/>
     </row>
-    <row hidden="1" r="167" s="1" spans="1:3">
+    <row hidden="1" r="167" s="1" spans="1:4">
       <c r="A167" t="s"/>
     </row>
-    <row hidden="1" r="168" s="1" spans="1:3">
+    <row hidden="1" r="168" s="1" spans="1:4">
       <c r="A168" t="s"/>
     </row>
-    <row r="169" s="1" spans="1:3">
+    <row r="169" s="1" spans="1:4">
       <c r="A169" t="s">
         <v>316</v>
       </c>
@@ -37997,23 +38097,26 @@
       <c r="C169" t="s">
         <v>2789</v>
       </c>
-    </row>
-    <row hidden="1" r="170" s="1" spans="1:3">
+      <c r="D169" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row hidden="1" r="170" s="1" spans="1:4">
       <c r="A170" t="s"/>
     </row>
-    <row hidden="1" r="171" s="1" spans="1:3">
+    <row hidden="1" r="171" s="1" spans="1:4">
       <c r="A171" t="s"/>
     </row>
-    <row hidden="1" r="172" s="1" spans="1:3">
+    <row hidden="1" r="172" s="1" spans="1:4">
       <c r="A172" t="s"/>
     </row>
-    <row hidden="1" r="173" s="1" spans="1:3">
+    <row hidden="1" r="173" s="1" spans="1:4">
       <c r="A173" t="s"/>
     </row>
-    <row hidden="1" r="174" s="1" spans="1:3">
+    <row hidden="1" r="174" s="1" spans="1:4">
       <c r="A174" t="s"/>
     </row>
-    <row r="175" s="1" spans="1:3">
+    <row r="175" s="1" spans="1:4">
       <c r="A175" t="s">
         <v>331</v>
       </c>
@@ -38023,14 +38126,17 @@
       <c r="C175" t="s">
         <v>2791</v>
       </c>
-    </row>
-    <row hidden="1" r="176" s="1" spans="1:3">
+      <c r="D175" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row hidden="1" r="176" s="1" spans="1:4">
       <c r="A176" t="s"/>
     </row>
-    <row hidden="1" r="177" s="1" spans="1:3">
+    <row hidden="1" r="177" s="1" spans="1:4">
       <c r="A177" t="s"/>
     </row>
-    <row r="178" s="1" spans="1:3">
+    <row r="178" s="1" spans="1:4">
       <c r="A178" t="s">
         <v>338</v>
       </c>
@@ -38040,14 +38146,17 @@
       <c r="C178" t="s">
         <v>2793</v>
       </c>
-    </row>
-    <row hidden="1" r="179" s="1" spans="1:3">
+      <c r="D178" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row hidden="1" r="179" s="1" spans="1:4">
       <c r="A179" t="s"/>
     </row>
-    <row hidden="1" r="180" s="1" spans="1:3">
+    <row hidden="1" r="180" s="1" spans="1:4">
       <c r="A180" t="s"/>
     </row>
-    <row r="181" s="1" spans="1:3">
+    <row r="181" s="1" spans="1:4">
       <c r="A181" t="s">
         <v>345</v>
       </c>
@@ -38057,32 +38166,35 @@
       <c r="C181" t="s">
         <v>2795</v>
       </c>
-    </row>
-    <row hidden="1" r="182" s="1" spans="1:3">
+      <c r="D181" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row hidden="1" r="182" s="1" spans="1:4">
       <c r="A182" t="s"/>
     </row>
-    <row hidden="1" r="183" s="1" spans="1:3">
+    <row hidden="1" r="183" s="1" spans="1:4">
       <c r="A183" t="s"/>
     </row>
-    <row hidden="1" r="184" s="1" spans="1:3">
+    <row hidden="1" r="184" s="1" spans="1:4">
       <c r="A184" t="s"/>
     </row>
-    <row hidden="1" r="185" s="1" spans="1:3">
+    <row hidden="1" r="185" s="1" spans="1:4">
       <c r="A185" t="s"/>
     </row>
-    <row hidden="1" r="186" s="1" spans="1:3">
+    <row hidden="1" r="186" s="1" spans="1:4">
       <c r="A186" t="s"/>
     </row>
-    <row hidden="1" r="187" s="1" spans="1:3">
+    <row hidden="1" r="187" s="1" spans="1:4">
       <c r="A187" t="s"/>
     </row>
-    <row hidden="1" r="188" s="1" spans="1:3">
+    <row hidden="1" r="188" s="1" spans="1:4">
       <c r="A188" t="s"/>
     </row>
-    <row hidden="1" r="189" s="1" spans="1:3">
+    <row hidden="1" r="189" s="1" spans="1:4">
       <c r="A189" t="s"/>
     </row>
-    <row r="190" s="1" spans="1:3">
+    <row r="190" s="1" spans="1:4">
       <c r="A190" t="s">
         <v>361</v>
       </c>
@@ -38092,32 +38204,35 @@
       <c r="C190" t="s">
         <v>2797</v>
       </c>
-    </row>
-    <row hidden="1" r="191" s="1" spans="1:3">
+      <c r="D190" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row hidden="1" r="191" s="1" spans="1:4">
       <c r="A191" t="s"/>
     </row>
-    <row hidden="1" r="192" s="1" spans="1:3">
+    <row hidden="1" r="192" s="1" spans="1:4">
       <c r="A192" t="s"/>
     </row>
-    <row hidden="1" r="193" s="1" spans="1:3">
+    <row hidden="1" r="193" s="1" spans="1:4">
       <c r="A193" t="s"/>
     </row>
-    <row hidden="1" r="194" s="1" spans="1:3">
+    <row hidden="1" r="194" s="1" spans="1:4">
       <c r="A194" t="s"/>
     </row>
-    <row hidden="1" r="195" s="1" spans="1:3">
+    <row hidden="1" r="195" s="1" spans="1:4">
       <c r="A195" t="s"/>
     </row>
-    <row hidden="1" r="196" s="1" spans="1:3">
+    <row hidden="1" r="196" s="1" spans="1:4">
       <c r="A196" t="s"/>
     </row>
-    <row hidden="1" r="197" s="1" spans="1:3">
+    <row hidden="1" r="197" s="1" spans="1:4">
       <c r="A197" t="s"/>
     </row>
-    <row hidden="1" r="198" s="1" spans="1:3">
+    <row hidden="1" r="198" s="1" spans="1:4">
       <c r="A198" t="s"/>
     </row>
-    <row r="199" s="1" spans="1:3">
+    <row r="199" s="1" spans="1:4">
       <c r="A199" t="s">
         <v>379</v>
       </c>
@@ -38127,35 +38242,38 @@
       <c r="C199" t="s">
         <v>2799</v>
       </c>
-    </row>
-    <row hidden="1" r="200" s="1" spans="1:3">
+      <c r="D199" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row hidden="1" r="200" s="1" spans="1:4">
       <c r="A200" t="s"/>
     </row>
-    <row hidden="1" r="201" s="1" spans="1:3">
+    <row hidden="1" r="201" s="1" spans="1:4">
       <c r="A201" t="s"/>
     </row>
-    <row hidden="1" r="202" s="1" spans="1:3">
+    <row hidden="1" r="202" s="1" spans="1:4">
       <c r="A202" t="s"/>
     </row>
-    <row hidden="1" r="203" s="1" spans="1:3">
+    <row hidden="1" r="203" s="1" spans="1:4">
       <c r="A203" t="s"/>
     </row>
-    <row hidden="1" r="204" s="1" spans="1:3">
+    <row hidden="1" r="204" s="1" spans="1:4">
       <c r="A204" t="s"/>
     </row>
-    <row hidden="1" r="205" s="1" spans="1:3">
+    <row hidden="1" r="205" s="1" spans="1:4">
       <c r="A205" t="s"/>
     </row>
-    <row hidden="1" r="206" s="1" spans="1:3">
+    <row hidden="1" r="206" s="1" spans="1:4">
       <c r="A206" t="s"/>
     </row>
-    <row hidden="1" r="207" s="1" spans="1:3">
+    <row hidden="1" r="207" s="1" spans="1:4">
       <c r="A207" t="s"/>
     </row>
-    <row hidden="1" r="208" s="1" spans="1:3">
+    <row hidden="1" r="208" s="1" spans="1:4">
       <c r="A208" t="s"/>
     </row>
-    <row r="209" s="1" spans="1:3">
+    <row r="209" s="1" spans="1:4">
       <c r="A209" t="s">
         <v>396</v>
       </c>
@@ -38165,101 +38283,104 @@
       <c r="C209" t="s">
         <v>2801</v>
       </c>
-    </row>
-    <row hidden="1" r="210" s="1" spans="1:3">
+      <c r="D209" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row hidden="1" r="210" s="1" spans="1:4">
       <c r="A210" t="s"/>
     </row>
-    <row hidden="1" r="211" s="1" spans="1:3">
+    <row hidden="1" r="211" s="1" spans="1:4">
       <c r="A211" t="s"/>
     </row>
-    <row hidden="1" r="212" s="1" spans="1:3">
+    <row hidden="1" r="212" s="1" spans="1:4">
       <c r="A212" t="s"/>
     </row>
-    <row hidden="1" r="213" s="1" spans="1:3">
+    <row hidden="1" r="213" s="1" spans="1:4">
       <c r="A213" t="s"/>
     </row>
-    <row hidden="1" r="214" s="1" spans="1:3">
+    <row hidden="1" r="214" s="1" spans="1:4">
       <c r="A214" t="s"/>
     </row>
-    <row hidden="1" r="215" s="1" spans="1:3">
+    <row hidden="1" r="215" s="1" spans="1:4">
       <c r="A215" t="s"/>
     </row>
-    <row hidden="1" r="216" s="1" spans="1:3">
+    <row hidden="1" r="216" s="1" spans="1:4">
       <c r="A216" t="s"/>
     </row>
-    <row hidden="1" r="217" s="1" spans="1:3">
+    <row hidden="1" r="217" s="1" spans="1:4">
       <c r="A217" t="s"/>
     </row>
-    <row hidden="1" r="218" s="1" spans="1:3">
+    <row hidden="1" r="218" s="1" spans="1:4">
       <c r="A218" t="s"/>
     </row>
-    <row hidden="1" r="219" s="1" spans="1:3">
+    <row hidden="1" r="219" s="1" spans="1:4">
       <c r="A219" t="s"/>
     </row>
-    <row hidden="1" r="220" s="1" spans="1:3">
+    <row hidden="1" r="220" s="1" spans="1:4">
       <c r="A220" t="s"/>
     </row>
-    <row hidden="1" r="221" s="1" spans="1:3">
+    <row hidden="1" r="221" s="1" spans="1:4">
       <c r="A221" t="s"/>
     </row>
-    <row hidden="1" r="222" s="1" spans="1:3">
+    <row hidden="1" r="222" s="1" spans="1:4">
       <c r="A222" t="s"/>
     </row>
-    <row hidden="1" r="223" s="1" spans="1:3">
+    <row hidden="1" r="223" s="1" spans="1:4">
       <c r="A223" t="s"/>
     </row>
-    <row hidden="1" r="224" s="1" spans="1:3">
+    <row hidden="1" r="224" s="1" spans="1:4">
       <c r="A224" t="s"/>
     </row>
-    <row hidden="1" r="225" s="1" spans="1:3">
+    <row hidden="1" r="225" s="1" spans="1:4">
       <c r="A225" t="s"/>
     </row>
-    <row hidden="1" r="226" s="1" spans="1:3">
+    <row hidden="1" r="226" s="1" spans="1:4">
       <c r="A226" t="s"/>
     </row>
-    <row hidden="1" r="227" s="1" spans="1:3">
+    <row hidden="1" r="227" s="1" spans="1:4">
       <c r="A227" t="s"/>
     </row>
-    <row hidden="1" r="228" s="1" spans="1:3">
+    <row hidden="1" r="228" s="1" spans="1:4">
       <c r="A228" t="s"/>
     </row>
-    <row hidden="1" r="229" s="1" spans="1:3">
+    <row hidden="1" r="229" s="1" spans="1:4">
       <c r="A229" t="s"/>
     </row>
-    <row hidden="1" r="230" s="1" spans="1:3">
+    <row hidden="1" r="230" s="1" spans="1:4">
       <c r="A230" t="s"/>
     </row>
-    <row hidden="1" r="231" s="1" spans="1:3">
+    <row hidden="1" r="231" s="1" spans="1:4">
       <c r="A231" t="s"/>
     </row>
-    <row hidden="1" r="232" s="1" spans="1:3">
+    <row hidden="1" r="232" s="1" spans="1:4">
       <c r="A232" t="s"/>
     </row>
-    <row hidden="1" r="233" s="1" spans="1:3">
+    <row hidden="1" r="233" s="1" spans="1:4">
       <c r="A233" t="s"/>
     </row>
-    <row hidden="1" r="234" s="1" spans="1:3">
+    <row hidden="1" r="234" s="1" spans="1:4">
       <c r="A234" t="s"/>
     </row>
-    <row hidden="1" r="235" s="1" spans="1:3">
+    <row hidden="1" r="235" s="1" spans="1:4">
       <c r="A235" t="s"/>
     </row>
-    <row hidden="1" r="236" s="1" spans="1:3">
+    <row hidden="1" r="236" s="1" spans="1:4">
       <c r="A236" t="s"/>
     </row>
-    <row hidden="1" r="237" s="1" spans="1:3">
+    <row hidden="1" r="237" s="1" spans="1:4">
       <c r="A237" t="s"/>
     </row>
-    <row hidden="1" r="238" s="1" spans="1:3">
+    <row hidden="1" r="238" s="1" spans="1:4">
       <c r="A238" t="s"/>
     </row>
-    <row hidden="1" r="239" s="1" spans="1:3">
+    <row hidden="1" r="239" s="1" spans="1:4">
       <c r="A239" t="s"/>
     </row>
-    <row hidden="1" r="240" s="1" spans="1:3">
+    <row hidden="1" r="240" s="1" spans="1:4">
       <c r="A240" t="s"/>
     </row>
-    <row r="241" s="1" spans="1:3">
+    <row r="241" s="1" spans="1:4">
       <c r="A241" t="s">
         <v>421</v>
       </c>
@@ -38269,17 +38390,20 @@
       <c r="C241" t="s">
         <v>2803</v>
       </c>
-    </row>
-    <row hidden="1" r="242" s="1" spans="1:3">
+      <c r="D241" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row hidden="1" r="242" s="1" spans="1:4">
       <c r="A242" t="s"/>
     </row>
-    <row hidden="1" r="243" s="1" spans="1:3">
+    <row hidden="1" r="243" s="1" spans="1:4">
       <c r="A243" t="s"/>
     </row>
-    <row hidden="1" r="244" s="1" spans="1:3">
+    <row hidden="1" r="244" s="1" spans="1:4">
       <c r="A244" t="s"/>
     </row>
-    <row r="245" s="1" spans="1:3">
+    <row r="245" s="1" spans="1:4">
       <c r="A245" t="s">
         <v>431</v>
       </c>
@@ -38289,23 +38413,26 @@
       <c r="C245" t="s">
         <v>2805</v>
       </c>
-    </row>
-    <row hidden="1" r="246" s="1" spans="1:3">
+      <c r="D245" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row hidden="1" r="246" s="1" spans="1:4">
       <c r="A246" t="s"/>
     </row>
-    <row hidden="1" r="247" s="1" spans="1:3">
+    <row hidden="1" r="247" s="1" spans="1:4">
       <c r="A247" t="s"/>
     </row>
-    <row hidden="1" r="248" s="1" spans="1:3">
+    <row hidden="1" r="248" s="1" spans="1:4">
       <c r="A248" t="s"/>
     </row>
-    <row hidden="1" r="249" s="1" spans="1:3">
+    <row hidden="1" r="249" s="1" spans="1:4">
       <c r="A249" t="s"/>
     </row>
-    <row hidden="1" r="250" s="1" spans="1:3">
+    <row hidden="1" r="250" s="1" spans="1:4">
       <c r="A250" t="s"/>
     </row>
-    <row r="251" s="1" spans="1:3">
+    <row r="251" s="1" spans="1:4">
       <c r="A251" t="s">
         <v>446</v>
       </c>
@@ -38315,11 +38442,14 @@
       <c r="C251" t="s">
         <v>2807</v>
       </c>
-    </row>
-    <row hidden="1" r="252" s="1" spans="1:3">
+      <c r="D251" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row hidden="1" r="252" s="1" spans="1:4">
       <c r="A252" t="s"/>
     </row>
-    <row r="253" s="1" spans="1:3">
+    <row r="253" s="1" spans="1:4">
       <c r="A253" t="s">
         <v>451</v>
       </c>
@@ -38329,8 +38459,11 @@
       <c r="C253" t="s">
         <v>2809</v>
       </c>
-    </row>
-    <row r="254" s="1" spans="1:3">
+      <c r="D253" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="254" s="1" spans="1:4">
       <c r="A254" t="s">
         <v>451</v>
       </c>
@@ -38340,32 +38473,35 @@
       <c r="C254" t="s">
         <v>2811</v>
       </c>
-    </row>
-    <row hidden="1" r="255" s="1" spans="1:3">
+      <c r="D254" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row hidden="1" r="255" s="1" spans="1:4">
       <c r="A255" t="s"/>
     </row>
-    <row hidden="1" r="256" s="1" spans="1:3">
+    <row hidden="1" r="256" s="1" spans="1:4">
       <c r="A256" t="s"/>
     </row>
-    <row hidden="1" r="257" s="1" spans="1:3">
+    <row hidden="1" r="257" s="1" spans="1:4">
       <c r="A257" t="s"/>
     </row>
-    <row hidden="1" r="258" s="1" spans="1:3">
+    <row hidden="1" r="258" s="1" spans="1:4">
       <c r="A258" t="s"/>
     </row>
-    <row hidden="1" r="259" s="1" spans="1:3">
+    <row hidden="1" r="259" s="1" spans="1:4">
       <c r="A259" t="s"/>
     </row>
-    <row hidden="1" r="260" s="1" spans="1:3">
+    <row hidden="1" r="260" s="1" spans="1:4">
       <c r="A260" t="s"/>
     </row>
-    <row hidden="1" r="261" s="1" spans="1:3">
+    <row hidden="1" r="261" s="1" spans="1:4">
       <c r="A261" t="s"/>
     </row>
-    <row hidden="1" r="262" s="1" spans="1:3">
+    <row hidden="1" r="262" s="1" spans="1:4">
       <c r="A262" t="s"/>
     </row>
-    <row r="263" s="1" spans="1:3">
+    <row r="263" s="1" spans="1:4">
       <c r="A263" t="s">
         <v>473</v>
       </c>
@@ -38375,11 +38511,14 @@
       <c r="C263" t="s">
         <v>2813</v>
       </c>
-    </row>
-    <row hidden="1" r="264" s="1" spans="1:3">
+      <c r="D263" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row hidden="1" r="264" s="1" spans="1:4">
       <c r="A264" t="s"/>
     </row>
-    <row r="265" s="1" spans="1:3">
+    <row r="265" s="1" spans="1:4">
       <c r="A265" t="s">
         <v>479</v>
       </c>
@@ -38389,14 +38528,17 @@
       <c r="C265" t="s">
         <v>2815</v>
       </c>
-    </row>
-    <row hidden="1" r="266" s="1" spans="1:3">
+      <c r="D265" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row hidden="1" r="266" s="1" spans="1:4">
       <c r="A266" t="s"/>
     </row>
-    <row hidden="1" r="267" s="1" spans="1:3">
+    <row hidden="1" r="267" s="1" spans="1:4">
       <c r="A267" t="s"/>
     </row>
-    <row r="268" s="1" spans="1:3">
+    <row r="268" s="1" spans="1:4">
       <c r="A268" t="s">
         <v>486</v>
       </c>
@@ -38406,8 +38548,11 @@
       <c r="C268" t="s">
         <v>2817</v>
       </c>
-    </row>
-    <row r="269" s="1" spans="1:3">
+      <c r="D268" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="269" s="1" spans="1:4">
       <c r="A269" t="s">
         <v>486</v>
       </c>
@@ -38417,32 +38562,35 @@
       <c r="C269" t="s">
         <v>2817</v>
       </c>
-    </row>
-    <row hidden="1" r="270" s="1" spans="1:3">
+      <c r="D269" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row hidden="1" r="270" s="1" spans="1:4">
       <c r="A270" t="s"/>
     </row>
-    <row hidden="1" r="271" s="1" spans="1:3">
+    <row hidden="1" r="271" s="1" spans="1:4">
       <c r="A271" t="s"/>
     </row>
-    <row hidden="1" r="272" s="1" spans="1:3">
+    <row hidden="1" r="272" s="1" spans="1:4">
       <c r="A272" t="s"/>
     </row>
-    <row hidden="1" r="273" s="1" spans="1:3">
+    <row hidden="1" r="273" s="1" spans="1:4">
       <c r="A273" t="s"/>
     </row>
-    <row hidden="1" r="274" s="1" spans="1:3">
+    <row hidden="1" r="274" s="1" spans="1:4">
       <c r="A274" t="s"/>
     </row>
-    <row hidden="1" r="275" s="1" spans="1:3">
+    <row hidden="1" r="275" s="1" spans="1:4">
       <c r="A275" t="s"/>
     </row>
-    <row hidden="1" r="276" s="1" spans="1:3">
+    <row hidden="1" r="276" s="1" spans="1:4">
       <c r="A276" t="s"/>
     </row>
-    <row hidden="1" r="277" s="1" spans="1:3">
+    <row hidden="1" r="277" s="1" spans="1:4">
       <c r="A277" t="s"/>
     </row>
-    <row r="278" s="1" spans="1:3">
+    <row r="278" s="1" spans="1:4">
       <c r="A278" t="s">
         <v>290</v>
       </c>
@@ -38452,44 +38600,47 @@
       <c r="C278" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row hidden="1" r="279" s="1" spans="1:3">
+      <c r="D278" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row hidden="1" r="279" s="1" spans="1:4">
       <c r="A279" t="s"/>
     </row>
-    <row hidden="1" r="280" s="1" spans="1:3">
+    <row hidden="1" r="280" s="1" spans="1:4">
       <c r="A280" t="s"/>
     </row>
-    <row hidden="1" r="281" s="1" spans="1:3">
+    <row hidden="1" r="281" s="1" spans="1:4">
       <c r="A281" t="s"/>
     </row>
-    <row hidden="1" r="282" s="1" spans="1:3">
+    <row hidden="1" r="282" s="1" spans="1:4">
       <c r="A282" t="s"/>
     </row>
-    <row hidden="1" r="283" s="1" spans="1:3">
+    <row hidden="1" r="283" s="1" spans="1:4">
       <c r="A283" t="s"/>
     </row>
-    <row hidden="1" r="284" s="1" spans="1:3">
+    <row hidden="1" r="284" s="1" spans="1:4">
       <c r="A284" t="s"/>
     </row>
-    <row hidden="1" r="285" s="1" spans="1:3">
+    <row hidden="1" r="285" s="1" spans="1:4">
       <c r="A285" t="s"/>
     </row>
-    <row hidden="1" r="286" s="1" spans="1:3">
+    <row hidden="1" r="286" s="1" spans="1:4">
       <c r="A286" t="s"/>
     </row>
-    <row hidden="1" r="287" s="1" spans="1:3">
+    <row hidden="1" r="287" s="1" spans="1:4">
       <c r="A287" t="s"/>
     </row>
-    <row hidden="1" r="288" s="1" spans="1:3">
+    <row hidden="1" r="288" s="1" spans="1:4">
       <c r="A288" t="s"/>
     </row>
-    <row hidden="1" r="289" s="1" spans="1:3">
+    <row hidden="1" r="289" s="1" spans="1:4">
       <c r="A289" t="s"/>
     </row>
-    <row hidden="1" r="290" s="1" spans="1:3">
+    <row hidden="1" r="290" s="1" spans="1:4">
       <c r="A290" t="s"/>
     </row>
-    <row r="291" s="1" spans="1:3">
+    <row r="291" s="1" spans="1:4">
       <c r="A291" t="s">
         <v>526</v>
       </c>
@@ -38499,20 +38650,23 @@
       <c r="C291" t="s">
         <v>2821</v>
       </c>
-    </row>
-    <row hidden="1" r="292" s="1" spans="1:3">
+      <c r="D291" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row hidden="1" r="292" s="1" spans="1:4">
       <c r="A292" t="s"/>
     </row>
-    <row hidden="1" r="293" s="1" spans="1:3">
+    <row hidden="1" r="293" s="1" spans="1:4">
       <c r="A293" t="s"/>
     </row>
-    <row hidden="1" r="294" s="1" spans="1:3">
+    <row hidden="1" r="294" s="1" spans="1:4">
       <c r="A294" t="s"/>
     </row>
-    <row hidden="1" r="295" s="1" spans="1:3">
+    <row hidden="1" r="295" s="1" spans="1:4">
       <c r="A295" t="s"/>
     </row>
-    <row r="296" s="1" spans="1:3">
+    <row r="296" s="1" spans="1:4">
       <c r="A296" t="s">
         <v>451</v>
       </c>
@@ -38522,26 +38676,29 @@
       <c r="C296" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row hidden="1" r="297" s="1" spans="1:3">
+      <c r="D296" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row hidden="1" r="297" s="1" spans="1:4">
       <c r="A297" t="s"/>
     </row>
-    <row hidden="1" r="298" s="1" spans="1:3">
+    <row hidden="1" r="298" s="1" spans="1:4">
       <c r="A298" t="s"/>
     </row>
-    <row hidden="1" r="299" s="1" spans="1:3">
+    <row hidden="1" r="299" s="1" spans="1:4">
       <c r="A299" t="s"/>
     </row>
-    <row hidden="1" r="300" s="1" spans="1:3">
+    <row hidden="1" r="300" s="1" spans="1:4">
       <c r="A300" t="s"/>
     </row>
-    <row hidden="1" r="301" s="1" spans="1:3">
+    <row hidden="1" r="301" s="1" spans="1:4">
       <c r="A301" t="s"/>
     </row>
-    <row hidden="1" r="302" s="1" spans="1:3">
+    <row hidden="1" r="302" s="1" spans="1:4">
       <c r="A302" t="s"/>
     </row>
-    <row r="303" s="1" spans="1:3">
+    <row r="303" s="1" spans="1:4">
       <c r="A303" t="s">
         <v>451</v>
       </c>
@@ -38551,26 +38708,29 @@
       <c r="C303" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row hidden="1" r="304" s="1" spans="1:3">
+      <c r="D303" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row hidden="1" r="304" s="1" spans="1:4">
       <c r="A304" t="s"/>
     </row>
-    <row hidden="1" r="305" s="1" spans="1:3">
+    <row hidden="1" r="305" s="1" spans="1:4">
       <c r="A305" t="s"/>
     </row>
-    <row hidden="1" r="306" s="1" spans="1:3">
+    <row hidden="1" r="306" s="1" spans="1:4">
       <c r="A306" t="s"/>
     </row>
-    <row hidden="1" r="307" s="1" spans="1:3">
+    <row hidden="1" r="307" s="1" spans="1:4">
       <c r="A307" t="s"/>
     </row>
-    <row hidden="1" r="308" s="1" spans="1:3">
+    <row hidden="1" r="308" s="1" spans="1:4">
       <c r="A308" t="s"/>
     </row>
-    <row hidden="1" r="309" s="1" spans="1:3">
+    <row hidden="1" r="309" s="1" spans="1:4">
       <c r="A309" t="s"/>
     </row>
-    <row r="310" s="1" spans="1:3">
+    <row r="310" s="1" spans="1:4">
       <c r="A310" t="s">
         <v>451</v>
       </c>
@@ -38580,35 +38740,38 @@
       <c r="C310" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row hidden="1" r="311" s="1" spans="1:3">
+      <c r="D310" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row hidden="1" r="311" s="1" spans="1:4">
       <c r="A311" t="s"/>
     </row>
-    <row hidden="1" r="312" s="1" spans="1:3">
+    <row hidden="1" r="312" s="1" spans="1:4">
       <c r="A312" t="s"/>
     </row>
-    <row hidden="1" r="313" s="1" spans="1:3">
+    <row hidden="1" r="313" s="1" spans="1:4">
       <c r="A313" t="s"/>
     </row>
-    <row hidden="1" r="314" s="1" spans="1:3">
+    <row hidden="1" r="314" s="1" spans="1:4">
       <c r="A314" t="s"/>
     </row>
-    <row hidden="1" r="315" s="1" spans="1:3">
+    <row hidden="1" r="315" s="1" spans="1:4">
       <c r="A315" t="s"/>
     </row>
-    <row hidden="1" r="316" s="1" spans="1:3">
+    <row hidden="1" r="316" s="1" spans="1:4">
       <c r="A316" t="s"/>
     </row>
-    <row hidden="1" r="317" s="1" spans="1:3">
+    <row hidden="1" r="317" s="1" spans="1:4">
       <c r="A317" t="s"/>
     </row>
-    <row hidden="1" r="318" s="1" spans="1:3">
+    <row hidden="1" r="318" s="1" spans="1:4">
       <c r="A318" t="s"/>
     </row>
-    <row hidden="1" r="319" s="1" spans="1:3">
+    <row hidden="1" r="319" s="1" spans="1:4">
       <c r="A319" t="s"/>
     </row>
-    <row r="320" s="1" spans="1:3">
+    <row r="320" s="1" spans="1:4">
       <c r="A320" t="s">
         <v>451</v>
       </c>
@@ -38618,83 +38781,86 @@
       <c r="C320" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row hidden="1" r="321" s="1" spans="1:3">
+      <c r="D320" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row hidden="1" r="321" s="1" spans="1:4">
       <c r="A321" t="s"/>
     </row>
-    <row hidden="1" r="322" s="1" spans="1:3">
+    <row hidden="1" r="322" s="1" spans="1:4">
       <c r="A322" t="s"/>
     </row>
-    <row hidden="1" r="323" s="1" spans="1:3">
+    <row hidden="1" r="323" s="1" spans="1:4">
       <c r="A323" t="s"/>
     </row>
-    <row hidden="1" r="324" s="1" spans="1:3">
+    <row hidden="1" r="324" s="1" spans="1:4">
       <c r="A324" t="s"/>
     </row>
-    <row hidden="1" r="325" s="1" spans="1:3">
+    <row hidden="1" r="325" s="1" spans="1:4">
       <c r="A325" t="s"/>
     </row>
-    <row hidden="1" r="326" s="1" spans="1:3">
+    <row hidden="1" r="326" s="1" spans="1:4">
       <c r="A326" t="s"/>
     </row>
-    <row hidden="1" r="327" s="1" spans="1:3">
+    <row hidden="1" r="327" s="1" spans="1:4">
       <c r="A327" t="s"/>
     </row>
-    <row hidden="1" r="328" s="1" spans="1:3">
+    <row hidden="1" r="328" s="1" spans="1:4">
       <c r="A328" t="s"/>
     </row>
-    <row hidden="1" r="329" s="1" spans="1:3">
+    <row hidden="1" r="329" s="1" spans="1:4">
       <c r="A329" t="s"/>
     </row>
-    <row hidden="1" r="330" s="1" spans="1:3">
+    <row hidden="1" r="330" s="1" spans="1:4">
       <c r="A330" t="s"/>
     </row>
-    <row hidden="1" r="331" s="1" spans="1:3">
+    <row hidden="1" r="331" s="1" spans="1:4">
       <c r="A331" t="s"/>
     </row>
-    <row hidden="1" r="332" s="1" spans="1:3">
+    <row hidden="1" r="332" s="1" spans="1:4">
       <c r="A332" t="s"/>
     </row>
-    <row hidden="1" r="333" s="1" spans="1:3">
+    <row hidden="1" r="333" s="1" spans="1:4">
       <c r="A333" t="s"/>
     </row>
-    <row hidden="1" r="334" s="1" spans="1:3">
+    <row hidden="1" r="334" s="1" spans="1:4">
       <c r="A334" t="s"/>
     </row>
-    <row hidden="1" r="335" s="1" spans="1:3">
+    <row hidden="1" r="335" s="1" spans="1:4">
       <c r="A335" t="s"/>
     </row>
-    <row hidden="1" r="336" s="1" spans="1:3">
+    <row hidden="1" r="336" s="1" spans="1:4">
       <c r="A336" t="s"/>
     </row>
-    <row hidden="1" r="337" s="1" spans="1:3">
+    <row hidden="1" r="337" s="1" spans="1:4">
       <c r="A337" t="s"/>
     </row>
-    <row hidden="1" r="338" s="1" spans="1:3">
+    <row hidden="1" r="338" s="1" spans="1:4">
       <c r="A338" t="s"/>
     </row>
-    <row hidden="1" r="339" s="1" spans="1:3">
+    <row hidden="1" r="339" s="1" spans="1:4">
       <c r="A339" t="s"/>
     </row>
-    <row hidden="1" r="340" s="1" spans="1:3">
+    <row hidden="1" r="340" s="1" spans="1:4">
       <c r="A340" t="s"/>
     </row>
-    <row hidden="1" r="341" s="1" spans="1:3">
+    <row hidden="1" r="341" s="1" spans="1:4">
       <c r="A341" t="s"/>
     </row>
-    <row hidden="1" r="342" s="1" spans="1:3">
+    <row hidden="1" r="342" s="1" spans="1:4">
       <c r="A342" t="s"/>
     </row>
-    <row hidden="1" r="343" s="1" spans="1:3">
+    <row hidden="1" r="343" s="1" spans="1:4">
       <c r="A343" t="s"/>
     </row>
-    <row hidden="1" r="344" s="1" spans="1:3">
+    <row hidden="1" r="344" s="1" spans="1:4">
       <c r="A344" t="s"/>
     </row>
-    <row hidden="1" r="345" s="1" spans="1:3">
+    <row hidden="1" r="345" s="1" spans="1:4">
       <c r="A345" t="s"/>
     </row>
-    <row r="346" s="1" spans="1:3">
+    <row r="346" s="1" spans="1:4">
       <c r="A346" t="s">
         <v>580</v>
       </c>
@@ -38704,29 +38870,32 @@
       <c r="C346" t="s">
         <v>2825</v>
       </c>
-    </row>
-    <row hidden="1" r="347" s="1" spans="1:3">
+      <c r="D346" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row hidden="1" r="347" s="1" spans="1:4">
       <c r="A347" t="s"/>
     </row>
-    <row hidden="1" r="348" s="1" spans="1:3">
+    <row hidden="1" r="348" s="1" spans="1:4">
       <c r="A348" t="s"/>
     </row>
-    <row hidden="1" r="349" s="1" spans="1:3">
+    <row hidden="1" r="349" s="1" spans="1:4">
       <c r="A349" t="s"/>
     </row>
-    <row hidden="1" r="350" s="1" spans="1:3">
+    <row hidden="1" r="350" s="1" spans="1:4">
       <c r="A350" t="s"/>
     </row>
-    <row hidden="1" r="351" s="1" spans="1:3">
+    <row hidden="1" r="351" s="1" spans="1:4">
       <c r="A351" t="s"/>
     </row>
-    <row hidden="1" r="352" s="1" spans="1:3">
+    <row hidden="1" r="352" s="1" spans="1:4">
       <c r="A352" t="s"/>
     </row>
-    <row hidden="1" r="353" s="1" spans="1:3">
+    <row hidden="1" r="353" s="1" spans="1:4">
       <c r="A353" t="s"/>
     </row>
-    <row r="354" s="1" spans="1:3">
+    <row r="354" s="1" spans="1:4">
       <c r="A354" t="s">
         <v>599</v>
       </c>
@@ -38736,65 +38905,68 @@
       <c r="C354" t="s">
         <v>2827</v>
       </c>
-    </row>
-    <row hidden="1" r="355" s="1" spans="1:3">
+      <c r="D354" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row hidden="1" r="355" s="1" spans="1:4">
       <c r="A355" t="s"/>
     </row>
-    <row hidden="1" r="356" s="1" spans="1:3">
+    <row hidden="1" r="356" s="1" spans="1:4">
       <c r="A356" t="s"/>
     </row>
-    <row hidden="1" r="357" s="1" spans="1:3">
+    <row hidden="1" r="357" s="1" spans="1:4">
       <c r="A357" t="s"/>
     </row>
-    <row hidden="1" r="358" s="1" spans="1:3">
+    <row hidden="1" r="358" s="1" spans="1:4">
       <c r="A358" t="s"/>
     </row>
-    <row hidden="1" r="359" s="1" spans="1:3">
+    <row hidden="1" r="359" s="1" spans="1:4">
       <c r="A359" t="s"/>
     </row>
-    <row hidden="1" r="360" s="1" spans="1:3">
+    <row hidden="1" r="360" s="1" spans="1:4">
       <c r="A360" t="s"/>
     </row>
-    <row hidden="1" r="361" s="1" spans="1:3">
+    <row hidden="1" r="361" s="1" spans="1:4">
       <c r="A361" t="s"/>
     </row>
-    <row hidden="1" r="362" s="1" spans="1:3">
+    <row hidden="1" r="362" s="1" spans="1:4">
       <c r="A362" t="s"/>
     </row>
-    <row hidden="1" r="363" s="1" spans="1:3">
+    <row hidden="1" r="363" s="1" spans="1:4">
       <c r="A363" t="s"/>
     </row>
-    <row hidden="1" r="364" s="1" spans="1:3">
+    <row hidden="1" r="364" s="1" spans="1:4">
       <c r="A364" t="s"/>
     </row>
-    <row hidden="1" r="365" s="1" spans="1:3">
+    <row hidden="1" r="365" s="1" spans="1:4">
       <c r="A365" t="s"/>
     </row>
-    <row hidden="1" r="366" s="1" spans="1:3">
+    <row hidden="1" r="366" s="1" spans="1:4">
       <c r="A366" t="s"/>
     </row>
-    <row hidden="1" r="367" s="1" spans="1:3">
+    <row hidden="1" r="367" s="1" spans="1:4">
       <c r="A367" t="s"/>
     </row>
-    <row hidden="1" r="368" s="1" spans="1:3">
+    <row hidden="1" r="368" s="1" spans="1:4">
       <c r="A368" t="s"/>
     </row>
-    <row hidden="1" r="369" s="1" spans="1:3">
+    <row hidden="1" r="369" s="1" spans="1:4">
       <c r="A369" t="s"/>
     </row>
-    <row hidden="1" r="370" s="1" spans="1:3">
+    <row hidden="1" r="370" s="1" spans="1:4">
       <c r="A370" t="s"/>
     </row>
-    <row hidden="1" r="371" s="1" spans="1:3">
+    <row hidden="1" r="371" s="1" spans="1:4">
       <c r="A371" t="s"/>
     </row>
-    <row hidden="1" r="372" s="1" spans="1:3">
+    <row hidden="1" r="372" s="1" spans="1:4">
       <c r="A372" t="s"/>
     </row>
-    <row hidden="1" r="373" s="1" spans="1:3">
+    <row hidden="1" r="373" s="1" spans="1:4">
       <c r="A373" t="s"/>
     </row>
-    <row r="374" s="1" spans="1:3">
+    <row r="374" s="1" spans="1:4">
       <c r="A374" t="s">
         <v>641</v>
       </c>
@@ -38804,8 +38976,11 @@
       <c r="C374" t="s">
         <v>2829</v>
       </c>
-    </row>
-    <row r="375" s="1" spans="1:3">
+      <c r="D374" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="375" s="1" spans="1:4">
       <c r="A375" t="s">
         <v>446</v>
       </c>
@@ -38815,8 +38990,11 @@
       <c r="C375" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="376" s="1" spans="1:3">
+      <c r="D375" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="376" s="1" spans="1:4">
       <c r="A376" t="s">
         <v>446</v>
       </c>
@@ -38826,38 +39004,41 @@
       <c r="C376" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row hidden="1" r="377" s="1" spans="1:3">
+      <c r="D376" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row hidden="1" r="377" s="1" spans="1:4">
       <c r="A377" t="s"/>
     </row>
-    <row hidden="1" r="378" s="1" spans="1:3">
+    <row hidden="1" r="378" s="1" spans="1:4">
       <c r="A378" t="s"/>
     </row>
-    <row hidden="1" r="379" s="1" spans="1:3">
+    <row hidden="1" r="379" s="1" spans="1:4">
       <c r="A379" t="s"/>
     </row>
-    <row hidden="1" r="380" s="1" spans="1:3">
+    <row hidden="1" r="380" s="1" spans="1:4">
       <c r="A380" t="s"/>
     </row>
-    <row hidden="1" r="381" s="1" spans="1:3">
+    <row hidden="1" r="381" s="1" spans="1:4">
       <c r="A381" t="s"/>
     </row>
-    <row hidden="1" r="382" s="1" spans="1:3">
+    <row hidden="1" r="382" s="1" spans="1:4">
       <c r="A382" t="s"/>
     </row>
-    <row hidden="1" r="383" s="1" spans="1:3">
+    <row hidden="1" r="383" s="1" spans="1:4">
       <c r="A383" t="s"/>
     </row>
-    <row hidden="1" r="384" s="1" spans="1:3">
+    <row hidden="1" r="384" s="1" spans="1:4">
       <c r="A384" t="s"/>
     </row>
-    <row hidden="1" r="385" s="1" spans="1:3">
+    <row hidden="1" r="385" s="1" spans="1:4">
       <c r="A385" t="s"/>
     </row>
-    <row hidden="1" r="386" s="1" spans="1:3">
+    <row hidden="1" r="386" s="1" spans="1:4">
       <c r="A386" t="s"/>
     </row>
-    <row r="387" s="1" spans="1:3">
+    <row r="387" s="1" spans="1:4">
       <c r="A387" t="s">
         <v>666</v>
       </c>
@@ -38867,14 +39048,17 @@
       <c r="C387" t="s">
         <v>2834</v>
       </c>
-    </row>
-    <row hidden="1" r="388" s="1" spans="1:3">
+      <c r="D387" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row hidden="1" r="388" s="1" spans="1:4">
       <c r="A388" t="s"/>
     </row>
-    <row hidden="1" r="389" s="1" spans="1:3">
+    <row hidden="1" r="389" s="1" spans="1:4">
       <c r="A389" t="s"/>
     </row>
-    <row r="390" s="1" spans="1:3">
+    <row r="390" s="1" spans="1:4">
       <c r="A390" t="s">
         <v>673</v>
       </c>
@@ -38884,23 +39068,26 @@
       <c r="C390" t="s">
         <v>2836</v>
       </c>
-    </row>
-    <row hidden="1" r="391" s="1" spans="1:3">
+      <c r="D390" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row hidden="1" r="391" s="1" spans="1:4">
       <c r="A391" t="s"/>
     </row>
-    <row hidden="1" r="392" s="1" spans="1:3">
+    <row hidden="1" r="392" s="1" spans="1:4">
       <c r="A392" t="s"/>
     </row>
-    <row hidden="1" r="393" s="1" spans="1:3">
+    <row hidden="1" r="393" s="1" spans="1:4">
       <c r="A393" t="s"/>
     </row>
-    <row hidden="1" r="394" s="1" spans="1:3">
+    <row hidden="1" r="394" s="1" spans="1:4">
       <c r="A394" t="s"/>
     </row>
-    <row hidden="1" r="395" s="1" spans="1:3">
+    <row hidden="1" r="395" s="1" spans="1:4">
       <c r="A395" t="s"/>
     </row>
-    <row r="396" s="1" spans="1:3">
+    <row r="396" s="1" spans="1:4">
       <c r="A396" t="s">
         <v>687</v>
       </c>
@@ -38910,65 +39097,68 @@
       <c r="C396" t="s">
         <v>2838</v>
       </c>
-    </row>
-    <row hidden="1" r="397" s="1" spans="1:3">
+      <c r="D396" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row hidden="1" r="397" s="1" spans="1:4">
       <c r="A397" t="s"/>
     </row>
-    <row hidden="1" r="398" s="1" spans="1:3">
+    <row hidden="1" r="398" s="1" spans="1:4">
       <c r="A398" t="s"/>
     </row>
-    <row hidden="1" r="399" s="1" spans="1:3">
+    <row hidden="1" r="399" s="1" spans="1:4">
       <c r="A399" t="s"/>
     </row>
-    <row hidden="1" r="400" s="1" spans="1:3">
+    <row hidden="1" r="400" s="1" spans="1:4">
       <c r="A400" t="s"/>
     </row>
-    <row hidden="1" r="401" s="1" spans="1:3">
+    <row hidden="1" r="401" s="1" spans="1:4">
       <c r="A401" t="s"/>
     </row>
-    <row hidden="1" r="402" s="1" spans="1:3">
+    <row hidden="1" r="402" s="1" spans="1:4">
       <c r="A402" t="s"/>
     </row>
-    <row hidden="1" r="403" s="1" spans="1:3">
+    <row hidden="1" r="403" s="1" spans="1:4">
       <c r="A403" t="s"/>
     </row>
-    <row hidden="1" r="404" s="1" spans="1:3">
+    <row hidden="1" r="404" s="1" spans="1:4">
       <c r="A404" t="s"/>
     </row>
-    <row hidden="1" r="405" s="1" spans="1:3">
+    <row hidden="1" r="405" s="1" spans="1:4">
       <c r="A405" t="s"/>
     </row>
-    <row hidden="1" r="406" s="1" spans="1:3">
+    <row hidden="1" r="406" s="1" spans="1:4">
       <c r="A406" t="s"/>
     </row>
-    <row hidden="1" r="407" s="1" spans="1:3">
+    <row hidden="1" r="407" s="1" spans="1:4">
       <c r="A407" t="s"/>
     </row>
-    <row hidden="1" r="408" s="1" spans="1:3">
+    <row hidden="1" r="408" s="1" spans="1:4">
       <c r="A408" t="s"/>
     </row>
-    <row hidden="1" r="409" s="1" spans="1:3">
+    <row hidden="1" r="409" s="1" spans="1:4">
       <c r="A409" t="s"/>
     </row>
-    <row hidden="1" r="410" s="1" spans="1:3">
+    <row hidden="1" r="410" s="1" spans="1:4">
       <c r="A410" t="s"/>
     </row>
-    <row hidden="1" r="411" s="1" spans="1:3">
+    <row hidden="1" r="411" s="1" spans="1:4">
       <c r="A411" t="s"/>
     </row>
-    <row hidden="1" r="412" s="1" spans="1:3">
+    <row hidden="1" r="412" s="1" spans="1:4">
       <c r="A412" t="s"/>
     </row>
-    <row hidden="1" r="413" s="1" spans="1:3">
+    <row hidden="1" r="413" s="1" spans="1:4">
       <c r="A413" t="s"/>
     </row>
-    <row hidden="1" r="414" s="1" spans="1:3">
+    <row hidden="1" r="414" s="1" spans="1:4">
       <c r="A414" t="s"/>
     </row>
-    <row hidden="1" r="415" s="1" spans="1:3">
+    <row hidden="1" r="415" s="1" spans="1:4">
       <c r="A415" t="s"/>
     </row>
-    <row r="416" s="1" spans="1:3">
+    <row r="416" s="1" spans="1:4">
       <c r="A416" t="s">
         <v>728</v>
       </c>
@@ -38976,14 +39166,17 @@
         <v>2839</v>
       </c>
       <c r="C416" t="s"/>
-    </row>
-    <row hidden="1" r="417" s="1" spans="1:3">
+      <c r="D416" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row hidden="1" r="417" s="1" spans="1:4">
       <c r="A417" t="s"/>
     </row>
-    <row hidden="1" r="418" s="1" spans="1:3">
+    <row hidden="1" r="418" s="1" spans="1:4">
       <c r="A418" t="s"/>
     </row>
-    <row r="419" s="1" spans="1:3">
+    <row r="419" s="1" spans="1:4">
       <c r="A419" t="s">
         <v>733</v>
       </c>
@@ -38993,29 +39186,32 @@
       <c r="C419" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row hidden="1" r="420" s="1" spans="1:3">
+      <c r="D419" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row hidden="1" r="420" s="1" spans="1:4">
       <c r="A420" t="s"/>
     </row>
-    <row hidden="1" r="421" s="1" spans="1:3">
+    <row hidden="1" r="421" s="1" spans="1:4">
       <c r="A421" t="s"/>
     </row>
-    <row hidden="1" r="422" s="1" spans="1:3">
+    <row hidden="1" r="422" s="1" spans="1:4">
       <c r="A422" t="s"/>
     </row>
-    <row hidden="1" r="423" s="1" spans="1:3">
+    <row hidden="1" r="423" s="1" spans="1:4">
       <c r="A423" t="s"/>
     </row>
-    <row hidden="1" r="424" s="1" spans="1:3">
+    <row hidden="1" r="424" s="1" spans="1:4">
       <c r="A424" t="s"/>
     </row>
-    <row hidden="1" r="425" s="1" spans="1:3">
+    <row hidden="1" r="425" s="1" spans="1:4">
       <c r="A425" t="s"/>
     </row>
-    <row hidden="1" r="426" s="1" spans="1:3">
+    <row hidden="1" r="426" s="1" spans="1:4">
       <c r="A426" t="s"/>
     </row>
-    <row r="427" s="1" spans="1:3">
+    <row r="427" s="1" spans="1:4">
       <c r="A427" t="s">
         <v>752</v>
       </c>
@@ -39025,35 +39221,38 @@
       <c r="C427" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row hidden="1" r="428" s="1" spans="1:3">
+      <c r="D427" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row hidden="1" r="428" s="1" spans="1:4">
       <c r="A428" t="s"/>
     </row>
-    <row hidden="1" r="429" s="1" spans="1:3">
+    <row hidden="1" r="429" s="1" spans="1:4">
       <c r="A429" t="s"/>
     </row>
-    <row hidden="1" r="430" s="1" spans="1:3">
+    <row hidden="1" r="430" s="1" spans="1:4">
       <c r="A430" t="s"/>
     </row>
-    <row hidden="1" r="431" s="1" spans="1:3">
+    <row hidden="1" r="431" s="1" spans="1:4">
       <c r="A431" t="s"/>
     </row>
-    <row hidden="1" r="432" s="1" spans="1:3">
+    <row hidden="1" r="432" s="1" spans="1:4">
       <c r="A432" t="s"/>
     </row>
-    <row hidden="1" r="433" s="1" spans="1:3">
+    <row hidden="1" r="433" s="1" spans="1:4">
       <c r="A433" t="s"/>
     </row>
-    <row hidden="1" r="434" s="1" spans="1:3">
+    <row hidden="1" r="434" s="1" spans="1:4">
       <c r="A434" t="s"/>
     </row>
-    <row hidden="1" r="435" s="1" spans="1:3">
+    <row hidden="1" r="435" s="1" spans="1:4">
       <c r="A435" t="s"/>
     </row>
-    <row hidden="1" r="436" s="1" spans="1:3">
+    <row hidden="1" r="436" s="1" spans="1:4">
       <c r="A436" t="s"/>
     </row>
-    <row r="437" s="1" spans="1:3">
+    <row r="437" s="1" spans="1:4">
       <c r="A437" t="s">
         <v>780</v>
       </c>
@@ -39063,17 +39262,20 @@
       <c r="C437" t="s">
         <v>2845</v>
       </c>
-    </row>
-    <row hidden="1" r="438" s="1" spans="1:3">
+      <c r="D437" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row hidden="1" r="438" s="1" spans="1:4">
       <c r="A438" t="s"/>
     </row>
-    <row hidden="1" r="439" s="1" spans="1:3">
+    <row hidden="1" r="439" s="1" spans="1:4">
       <c r="A439" t="s"/>
     </row>
-    <row hidden="1" r="440" s="1" spans="1:3">
+    <row hidden="1" r="440" s="1" spans="1:4">
       <c r="A440" t="s"/>
     </row>
-    <row r="441" s="1" spans="1:3">
+    <row r="441" s="1" spans="1:4">
       <c r="A441" t="s">
         <v>789</v>
       </c>
@@ -39083,68 +39285,71 @@
       <c r="C441" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row hidden="1" r="442" s="1" spans="1:3">
+      <c r="D441" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row hidden="1" r="442" s="1" spans="1:4">
       <c r="A442" t="s"/>
     </row>
-    <row hidden="1" r="443" s="1" spans="1:3">
+    <row hidden="1" r="443" s="1" spans="1:4">
       <c r="A443" t="s"/>
     </row>
-    <row hidden="1" r="444" s="1" spans="1:3">
+    <row hidden="1" r="444" s="1" spans="1:4">
       <c r="A444" t="s"/>
     </row>
-    <row hidden="1" r="445" s="1" spans="1:3">
+    <row hidden="1" r="445" s="1" spans="1:4">
       <c r="A445" t="s"/>
     </row>
-    <row hidden="1" r="446" s="1" spans="1:3">
+    <row hidden="1" r="446" s="1" spans="1:4">
       <c r="A446" t="s"/>
     </row>
-    <row hidden="1" r="447" s="1" spans="1:3">
+    <row hidden="1" r="447" s="1" spans="1:4">
       <c r="A447" t="s"/>
     </row>
-    <row hidden="1" r="448" s="1" spans="1:3">
+    <row hidden="1" r="448" s="1" spans="1:4">
       <c r="A448" t="s"/>
     </row>
-    <row hidden="1" r="449" s="1" spans="1:3">
+    <row hidden="1" r="449" s="1" spans="1:4">
       <c r="A449" t="s"/>
     </row>
-    <row hidden="1" r="450" s="1" spans="1:3">
+    <row hidden="1" r="450" s="1" spans="1:4">
       <c r="A450" t="s"/>
     </row>
-    <row hidden="1" r="451" s="1" spans="1:3">
+    <row hidden="1" r="451" s="1" spans="1:4">
       <c r="A451" t="s"/>
     </row>
-    <row hidden="1" r="452" s="1" spans="1:3">
+    <row hidden="1" r="452" s="1" spans="1:4">
       <c r="A452" t="s"/>
     </row>
-    <row hidden="1" r="453" s="1" spans="1:3">
+    <row hidden="1" r="453" s="1" spans="1:4">
       <c r="A453" t="s"/>
     </row>
-    <row hidden="1" r="454" s="1" spans="1:3">
+    <row hidden="1" r="454" s="1" spans="1:4">
       <c r="A454" t="s"/>
     </row>
-    <row hidden="1" r="455" s="1" spans="1:3">
+    <row hidden="1" r="455" s="1" spans="1:4">
       <c r="A455" t="s"/>
     </row>
-    <row hidden="1" r="456" s="1" spans="1:3">
+    <row hidden="1" r="456" s="1" spans="1:4">
       <c r="A456" t="s"/>
     </row>
-    <row hidden="1" r="457" s="1" spans="1:3">
+    <row hidden="1" r="457" s="1" spans="1:4">
       <c r="A457" t="s"/>
     </row>
-    <row hidden="1" r="458" s="1" spans="1:3">
+    <row hidden="1" r="458" s="1" spans="1:4">
       <c r="A458" t="s"/>
     </row>
-    <row hidden="1" r="459" s="1" spans="1:3">
+    <row hidden="1" r="459" s="1" spans="1:4">
       <c r="A459" t="s"/>
     </row>
-    <row hidden="1" r="460" s="1" spans="1:3">
+    <row hidden="1" r="460" s="1" spans="1:4">
       <c r="A460" t="s"/>
     </row>
-    <row hidden="1" r="461" s="1" spans="1:3">
+    <row hidden="1" r="461" s="1" spans="1:4">
       <c r="A461" t="s"/>
     </row>
-    <row r="462" s="1" spans="1:3">
+    <row r="462" s="1" spans="1:4">
       <c r="A462" t="s">
         <v>832</v>
       </c>
@@ -39154,170 +39359,173 @@
       <c r="C462" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row hidden="1" r="463" s="1" spans="1:3">
+      <c r="D462" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row hidden="1" r="463" s="1" spans="1:4">
       <c r="A463" t="s"/>
     </row>
-    <row hidden="1" r="464" s="1" spans="1:3">
+    <row hidden="1" r="464" s="1" spans="1:4">
       <c r="A464" t="s"/>
     </row>
-    <row hidden="1" r="465" s="1" spans="1:3">
+    <row hidden="1" r="465" s="1" spans="1:4">
       <c r="A465" t="s"/>
     </row>
-    <row hidden="1" r="466" s="1" spans="1:3">
+    <row hidden="1" r="466" s="1" spans="1:4">
       <c r="A466" t="s"/>
     </row>
-    <row hidden="1" r="467" s="1" spans="1:3">
+    <row hidden="1" r="467" s="1" spans="1:4">
       <c r="A467" t="s"/>
     </row>
-    <row hidden="1" r="468" s="1" spans="1:3">
+    <row hidden="1" r="468" s="1" spans="1:4">
       <c r="A468" t="s"/>
     </row>
-    <row hidden="1" r="469" s="1" spans="1:3">
+    <row hidden="1" r="469" s="1" spans="1:4">
       <c r="A469" t="s"/>
     </row>
-    <row hidden="1" r="470" s="1" spans="1:3">
+    <row hidden="1" r="470" s="1" spans="1:4">
       <c r="A470" t="s"/>
     </row>
-    <row hidden="1" r="471" s="1" spans="1:3">
+    <row hidden="1" r="471" s="1" spans="1:4">
       <c r="A471" t="s"/>
     </row>
-    <row hidden="1" r="472" s="1" spans="1:3">
+    <row hidden="1" r="472" s="1" spans="1:4">
       <c r="A472" t="s"/>
     </row>
-    <row hidden="1" r="473" s="1" spans="1:3">
+    <row hidden="1" r="473" s="1" spans="1:4">
       <c r="A473" t="s"/>
     </row>
-    <row hidden="1" r="474" s="1" spans="1:3">
+    <row hidden="1" r="474" s="1" spans="1:4">
       <c r="A474" t="s"/>
     </row>
-    <row hidden="1" r="475" s="1" spans="1:3">
+    <row hidden="1" r="475" s="1" spans="1:4">
       <c r="A475" t="s"/>
     </row>
-    <row hidden="1" r="476" s="1" spans="1:3">
+    <row hidden="1" r="476" s="1" spans="1:4">
       <c r="A476" t="s"/>
     </row>
-    <row hidden="1" r="477" s="1" spans="1:3">
+    <row hidden="1" r="477" s="1" spans="1:4">
       <c r="A477" t="s"/>
     </row>
-    <row hidden="1" r="478" s="1" spans="1:3">
+    <row hidden="1" r="478" s="1" spans="1:4">
       <c r="A478" t="s"/>
     </row>
-    <row hidden="1" r="479" s="1" spans="1:3">
+    <row hidden="1" r="479" s="1" spans="1:4">
       <c r="A479" t="s"/>
     </row>
-    <row hidden="1" r="480" s="1" spans="1:3">
+    <row hidden="1" r="480" s="1" spans="1:4">
       <c r="A480" t="s"/>
     </row>
-    <row hidden="1" r="481" s="1" spans="1:3">
+    <row hidden="1" r="481" s="1" spans="1:4">
       <c r="A481" t="s"/>
     </row>
-    <row hidden="1" r="482" s="1" spans="1:3">
+    <row hidden="1" r="482" s="1" spans="1:4">
       <c r="A482" t="s"/>
     </row>
-    <row hidden="1" r="483" s="1" spans="1:3">
+    <row hidden="1" r="483" s="1" spans="1:4">
       <c r="A483" t="s"/>
     </row>
-    <row hidden="1" r="484" s="1" spans="1:3">
+    <row hidden="1" r="484" s="1" spans="1:4">
       <c r="A484" t="s"/>
     </row>
-    <row hidden="1" r="485" s="1" spans="1:3">
+    <row hidden="1" r="485" s="1" spans="1:4">
       <c r="A485" t="s"/>
     </row>
-    <row hidden="1" r="486" s="1" spans="1:3">
+    <row hidden="1" r="486" s="1" spans="1:4">
       <c r="A486" t="s"/>
     </row>
-    <row hidden="1" r="487" s="1" spans="1:3">
+    <row hidden="1" r="487" s="1" spans="1:4">
       <c r="A487" t="s"/>
     </row>
-    <row hidden="1" r="488" s="1" spans="1:3">
+    <row hidden="1" r="488" s="1" spans="1:4">
       <c r="A488" t="s"/>
     </row>
-    <row hidden="1" r="489" s="1" spans="1:3">
+    <row hidden="1" r="489" s="1" spans="1:4">
       <c r="A489" t="s"/>
     </row>
-    <row hidden="1" r="490" s="1" spans="1:3">
+    <row hidden="1" r="490" s="1" spans="1:4">
       <c r="A490" t="s"/>
     </row>
-    <row hidden="1" r="491" s="1" spans="1:3">
+    <row hidden="1" r="491" s="1" spans="1:4">
       <c r="A491" t="s"/>
     </row>
-    <row hidden="1" r="492" s="1" spans="1:3">
+    <row hidden="1" r="492" s="1" spans="1:4">
       <c r="A492" t="s"/>
     </row>
-    <row hidden="1" r="493" s="1" spans="1:3">
+    <row hidden="1" r="493" s="1" spans="1:4">
       <c r="A493" t="s"/>
     </row>
-    <row hidden="1" r="494" s="1" spans="1:3">
+    <row hidden="1" r="494" s="1" spans="1:4">
       <c r="A494" t="s"/>
     </row>
-    <row hidden="1" r="495" s="1" spans="1:3">
+    <row hidden="1" r="495" s="1" spans="1:4">
       <c r="A495" t="s"/>
     </row>
-    <row hidden="1" r="496" s="1" spans="1:3">
+    <row hidden="1" r="496" s="1" spans="1:4">
       <c r="A496" t="s"/>
     </row>
-    <row hidden="1" r="497" s="1" spans="1:3">
+    <row hidden="1" r="497" s="1" spans="1:4">
       <c r="A497" t="s"/>
     </row>
-    <row hidden="1" r="498" s="1" spans="1:3">
+    <row hidden="1" r="498" s="1" spans="1:4">
       <c r="A498" t="s"/>
     </row>
-    <row hidden="1" r="499" s="1" spans="1:3">
+    <row hidden="1" r="499" s="1" spans="1:4">
       <c r="A499" t="s"/>
     </row>
-    <row hidden="1" r="500" s="1" spans="1:3">
+    <row hidden="1" r="500" s="1" spans="1:4">
       <c r="A500" t="s"/>
     </row>
-    <row hidden="1" r="501" s="1" spans="1:3">
+    <row hidden="1" r="501" s="1" spans="1:4">
       <c r="A501" t="s"/>
     </row>
-    <row hidden="1" r="502" s="1" spans="1:3">
+    <row hidden="1" r="502" s="1" spans="1:4">
       <c r="A502" t="s"/>
     </row>
-    <row hidden="1" r="503" s="1" spans="1:3">
+    <row hidden="1" r="503" s="1" spans="1:4">
       <c r="A503" t="s"/>
     </row>
-    <row hidden="1" r="504" s="1" spans="1:3">
+    <row hidden="1" r="504" s="1" spans="1:4">
       <c r="A504" t="s"/>
     </row>
-    <row hidden="1" r="505" s="1" spans="1:3">
+    <row hidden="1" r="505" s="1" spans="1:4">
       <c r="A505" t="s"/>
     </row>
-    <row hidden="1" r="506" s="1" spans="1:3">
+    <row hidden="1" r="506" s="1" spans="1:4">
       <c r="A506" t="s"/>
     </row>
-    <row hidden="1" r="507" s="1" spans="1:3">
+    <row hidden="1" r="507" s="1" spans="1:4">
       <c r="A507" t="s"/>
     </row>
-    <row hidden="1" r="508" s="1" spans="1:3">
+    <row hidden="1" r="508" s="1" spans="1:4">
       <c r="A508" t="s"/>
     </row>
-    <row hidden="1" r="509" s="1" spans="1:3">
+    <row hidden="1" r="509" s="1" spans="1:4">
       <c r="A509" t="s"/>
     </row>
-    <row hidden="1" r="510" s="1" spans="1:3">
+    <row hidden="1" r="510" s="1" spans="1:4">
       <c r="A510" t="s"/>
     </row>
-    <row hidden="1" r="511" s="1" spans="1:3">
+    <row hidden="1" r="511" s="1" spans="1:4">
       <c r="A511" t="s"/>
     </row>
-    <row hidden="1" r="512" s="1" spans="1:3">
+    <row hidden="1" r="512" s="1" spans="1:4">
       <c r="A512" t="s"/>
     </row>
-    <row hidden="1" r="513" s="1" spans="1:3">
+    <row hidden="1" r="513" s="1" spans="1:4">
       <c r="A513" t="s"/>
     </row>
-    <row hidden="1" r="514" s="1" spans="1:3">
+    <row hidden="1" r="514" s="1" spans="1:4">
       <c r="A514" t="s"/>
     </row>
-    <row hidden="1" r="515" s="1" spans="1:3">
+    <row hidden="1" r="515" s="1" spans="1:4">
       <c r="A515" t="s"/>
     </row>
-    <row hidden="1" r="516" s="1" spans="1:3">
+    <row hidden="1" r="516" s="1" spans="1:4">
       <c r="A516" t="s"/>
     </row>
-    <row r="517" s="1" spans="1:3">
+    <row r="517" s="1" spans="1:4">
       <c r="A517" t="s">
         <v>931</v>
       </c>
@@ -39327,11 +39535,14 @@
       <c r="C517" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row hidden="1" r="518" s="1" spans="1:3">
+      <c r="D517" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row hidden="1" r="518" s="1" spans="1:4">
       <c r="A518" t="s"/>
     </row>
-    <row r="519" s="1" spans="1:3">
+    <row r="519" s="1" spans="1:4">
       <c r="A519" t="s">
         <v>936</v>
       </c>
@@ -39341,8 +39552,11 @@
       <c r="C519" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="520" s="1" spans="1:3">
+      <c r="D519" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="520" s="1" spans="1:4">
       <c r="A520" t="s">
         <v>936</v>
       </c>
@@ -39352,47 +39566,50 @@
       <c r="C520" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row hidden="1" r="521" s="1" spans="1:3">
+      <c r="D520" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row hidden="1" r="521" s="1" spans="1:4">
       <c r="A521" t="s"/>
     </row>
-    <row hidden="1" r="522" s="1" spans="1:3">
+    <row hidden="1" r="522" s="1" spans="1:4">
       <c r="A522" t="s"/>
     </row>
-    <row hidden="1" r="523" s="1" spans="1:3">
+    <row hidden="1" r="523" s="1" spans="1:4">
       <c r="A523" t="s"/>
     </row>
-    <row hidden="1" r="524" s="1" spans="1:3">
+    <row hidden="1" r="524" s="1" spans="1:4">
       <c r="A524" t="s"/>
     </row>
-    <row hidden="1" r="525" s="1" spans="1:3">
+    <row hidden="1" r="525" s="1" spans="1:4">
       <c r="A525" t="s"/>
     </row>
-    <row hidden="1" r="526" s="1" spans="1:3">
+    <row hidden="1" r="526" s="1" spans="1:4">
       <c r="A526" t="s"/>
     </row>
-    <row hidden="1" r="527" s="1" spans="1:3">
+    <row hidden="1" r="527" s="1" spans="1:4">
       <c r="A527" t="s"/>
     </row>
-    <row hidden="1" r="528" s="1" spans="1:3">
+    <row hidden="1" r="528" s="1" spans="1:4">
       <c r="A528" t="s"/>
     </row>
-    <row hidden="1" r="529" s="1" spans="1:3">
+    <row hidden="1" r="529" s="1" spans="1:4">
       <c r="A529" t="s"/>
     </row>
-    <row hidden="1" r="530" s="1" spans="1:3">
+    <row hidden="1" r="530" s="1" spans="1:4">
       <c r="A530" t="s"/>
     </row>
-    <row hidden="1" r="531" s="1" spans="1:3">
+    <row hidden="1" r="531" s="1" spans="1:4">
       <c r="A531" t="s"/>
     </row>
-    <row hidden="1" r="532" s="1" spans="1:3">
+    <row hidden="1" r="532" s="1" spans="1:4">
       <c r="A532" t="s"/>
     </row>
-    <row hidden="1" r="533" s="1" spans="1:3">
+    <row hidden="1" r="533" s="1" spans="1:4">
       <c r="A533" t="s"/>
     </row>
-    <row r="534" s="1" spans="1:3">
+    <row r="534" s="1" spans="1:4">
       <c r="A534" t="s">
         <v>971</v>
       </c>
@@ -39402,8 +39619,11 @@
       <c r="C534" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="535" s="1" spans="1:3">
+      <c r="D534" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="535" s="1" spans="1:4">
       <c r="A535" t="s">
         <v>971</v>
       </c>
@@ -39413,35 +39633,38 @@
       <c r="C535" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row hidden="1" r="536" s="1" spans="1:3">
+      <c r="D535" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row hidden="1" r="536" s="1" spans="1:4">
       <c r="A536" t="s"/>
     </row>
-    <row hidden="1" r="537" s="1" spans="1:3">
+    <row hidden="1" r="537" s="1" spans="1:4">
       <c r="A537" t="s"/>
     </row>
-    <row hidden="1" r="538" s="1" spans="1:3">
+    <row hidden="1" r="538" s="1" spans="1:4">
       <c r="A538" t="s"/>
     </row>
-    <row hidden="1" r="539" s="1" spans="1:3">
+    <row hidden="1" r="539" s="1" spans="1:4">
       <c r="A539" t="s"/>
     </row>
-    <row hidden="1" r="540" s="1" spans="1:3">
+    <row hidden="1" r="540" s="1" spans="1:4">
       <c r="A540" t="s"/>
     </row>
-    <row hidden="1" r="541" s="1" spans="1:3">
+    <row hidden="1" r="541" s="1" spans="1:4">
       <c r="A541" t="s"/>
     </row>
-    <row hidden="1" r="542" s="1" spans="1:3">
+    <row hidden="1" r="542" s="1" spans="1:4">
       <c r="A542" t="s"/>
     </row>
-    <row hidden="1" r="543" s="1" spans="1:3">
+    <row hidden="1" r="543" s="1" spans="1:4">
       <c r="A543" t="s"/>
     </row>
-    <row hidden="1" r="544" s="1" spans="1:3">
+    <row hidden="1" r="544" s="1" spans="1:4">
       <c r="A544" t="s"/>
     </row>
-    <row r="545" s="1" spans="1:3">
+    <row r="545" s="1" spans="1:4">
       <c r="A545" t="s">
         <v>352</v>
       </c>
@@ -39451,20 +39674,23 @@
       <c r="C545" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row hidden="1" r="546" s="1" spans="1:3">
+      <c r="D545" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row hidden="1" r="546" s="1" spans="1:4">
       <c r="A546" t="s"/>
     </row>
-    <row hidden="1" r="547" s="1" spans="1:3">
+    <row hidden="1" r="547" s="1" spans="1:4">
       <c r="A547" t="s"/>
     </row>
-    <row hidden="1" r="548" s="1" spans="1:3">
+    <row hidden="1" r="548" s="1" spans="1:4">
       <c r="A548" t="s"/>
     </row>
-    <row hidden="1" r="549" s="1" spans="1:3">
+    <row hidden="1" r="549" s="1" spans="1:4">
       <c r="A549" t="s"/>
     </row>
-    <row r="550" s="1" spans="1:3">
+    <row r="550" s="1" spans="1:4">
       <c r="A550" t="s">
         <v>1003</v>
       </c>
@@ -39474,11 +39700,14 @@
       <c r="C550" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row hidden="1" r="551" s="1" spans="1:3">
+      <c r="D550" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row hidden="1" r="551" s="1" spans="1:4">
       <c r="A551" t="s"/>
     </row>
-    <row r="552" s="1" spans="1:3">
+    <row r="552" s="1" spans="1:4">
       <c r="A552" t="s">
         <v>1003</v>
       </c>
@@ -39488,26 +39717,29 @@
       <c r="C552" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row hidden="1" r="553" s="1" spans="1:3">
+      <c r="D552" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row hidden="1" r="553" s="1" spans="1:4">
       <c r="A553" t="s"/>
     </row>
-    <row hidden="1" r="554" s="1" spans="1:3">
+    <row hidden="1" r="554" s="1" spans="1:4">
       <c r="A554" t="s"/>
     </row>
-    <row hidden="1" r="555" s="1" spans="1:3">
+    <row hidden="1" r="555" s="1" spans="1:4">
       <c r="A555" t="s"/>
     </row>
-    <row hidden="1" r="556" s="1" spans="1:3">
+    <row hidden="1" r="556" s="1" spans="1:4">
       <c r="A556" t="s"/>
     </row>
-    <row hidden="1" r="557" s="1" spans="1:3">
+    <row hidden="1" r="557" s="1" spans="1:4">
       <c r="A557" t="s"/>
     </row>
-    <row hidden="1" r="558" s="1" spans="1:3">
+    <row hidden="1" r="558" s="1" spans="1:4">
       <c r="A558" t="s"/>
     </row>
-    <row r="559" s="1" spans="1:3">
+    <row r="559" s="1" spans="1:4">
       <c r="A559" t="s">
         <v>1023</v>
       </c>
@@ -39517,8 +39749,11 @@
       <c r="C559" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="560" s="1" spans="1:3">
+      <c r="D559" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="560" s="1" spans="1:4">
       <c r="A560" t="s">
         <v>1023</v>
       </c>
@@ -39528,8 +39763,11 @@
       <c r="C560" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="561" s="1" spans="1:3">
+      <c r="D560" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="561" s="1" spans="1:4">
       <c r="A561" t="s">
         <v>1023</v>
       </c>
@@ -39539,20 +39777,23 @@
       <c r="C561" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row hidden="1" r="562" s="1" spans="1:3">
+      <c r="D561" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row hidden="1" r="562" s="1" spans="1:4">
       <c r="A562" t="s"/>
     </row>
-    <row hidden="1" r="563" s="1" spans="1:3">
+    <row hidden="1" r="563" s="1" spans="1:4">
       <c r="A563" t="s"/>
     </row>
-    <row hidden="1" r="564" s="1" spans="1:3">
+    <row hidden="1" r="564" s="1" spans="1:4">
       <c r="A564" t="s"/>
     </row>
-    <row hidden="1" r="565" s="1" spans="1:3">
+    <row hidden="1" r="565" s="1" spans="1:4">
       <c r="A565" t="s"/>
     </row>
-    <row r="566" s="1" spans="1:3">
+    <row r="566" s="1" spans="1:4">
       <c r="A566" t="s">
         <v>921</v>
       </c>
@@ -39562,41 +39803,44 @@
       <c r="C566" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row hidden="1" r="567" s="1" spans="1:3">
+      <c r="D566" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row hidden="1" r="567" s="1" spans="1:4">
       <c r="A567" t="s"/>
     </row>
-    <row hidden="1" r="568" s="1" spans="1:3">
+    <row hidden="1" r="568" s="1" spans="1:4">
       <c r="A568" t="s"/>
     </row>
-    <row hidden="1" r="569" s="1" spans="1:3">
+    <row hidden="1" r="569" s="1" spans="1:4">
       <c r="A569" t="s"/>
     </row>
-    <row hidden="1" r="570" s="1" spans="1:3">
+    <row hidden="1" r="570" s="1" spans="1:4">
       <c r="A570" t="s"/>
     </row>
-    <row hidden="1" r="571" s="1" spans="1:3">
+    <row hidden="1" r="571" s="1" spans="1:4">
       <c r="A571" t="s"/>
     </row>
-    <row hidden="1" r="572" s="1" spans="1:3">
+    <row hidden="1" r="572" s="1" spans="1:4">
       <c r="A572" t="s"/>
     </row>
-    <row hidden="1" r="573" s="1" spans="1:3">
+    <row hidden="1" r="573" s="1" spans="1:4">
       <c r="A573" t="s"/>
     </row>
-    <row hidden="1" r="574" s="1" spans="1:3">
+    <row hidden="1" r="574" s="1" spans="1:4">
       <c r="A574" t="s"/>
     </row>
-    <row hidden="1" r="575" s="1" spans="1:3">
+    <row hidden="1" r="575" s="1" spans="1:4">
       <c r="A575" t="s"/>
     </row>
-    <row hidden="1" r="576" s="1" spans="1:3">
+    <row hidden="1" r="576" s="1" spans="1:4">
       <c r="A576" t="s"/>
     </row>
-    <row hidden="1" r="577" s="1" spans="1:3">
+    <row hidden="1" r="577" s="1" spans="1:4">
       <c r="A577" t="s"/>
     </row>
-    <row r="578" s="1" spans="1:3">
+    <row r="578" s="1" spans="1:4">
       <c r="A578" t="s">
         <v>347</v>
       </c>
@@ -39604,11 +39848,14 @@
         <v>2868</v>
       </c>
       <c r="C578" t="s"/>
-    </row>
-    <row hidden="1" r="579" s="1" spans="1:3">
+      <c r="D578" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row hidden="1" r="579" s="1" spans="1:4">
       <c r="A579" t="s"/>
     </row>
-    <row r="580" s="1" spans="1:3">
+    <row r="580" s="1" spans="1:4">
       <c r="A580" t="s">
         <v>347</v>
       </c>
@@ -39618,8 +39865,11 @@
       <c r="C580" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row r="581" s="1" spans="1:3">
+      <c r="D580" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="581" s="1" spans="1:4">
       <c r="A581" t="s">
         <v>347</v>
       </c>
@@ -39629,14 +39879,17 @@
       <c r="C581" t="s">
         <v>2870</v>
       </c>
-    </row>
-    <row hidden="1" r="582" s="1" spans="1:3">
+      <c r="D581" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row hidden="1" r="582" s="1" spans="1:4">
       <c r="A582" t="s"/>
     </row>
-    <row hidden="1" r="583" s="1" spans="1:3">
+    <row hidden="1" r="583" s="1" spans="1:4">
       <c r="A583" t="s"/>
     </row>
-    <row r="584" s="1" spans="1:3">
+    <row r="584" s="1" spans="1:4">
       <c r="A584" t="s">
         <v>1067</v>
       </c>
@@ -39646,23 +39899,26 @@
       <c r="C584" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row hidden="1" r="585" s="1" spans="1:3">
+      <c r="D584" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row hidden="1" r="585" s="1" spans="1:4">
       <c r="A585" t="s"/>
     </row>
-    <row hidden="1" r="586" s="1" spans="1:3">
+    <row hidden="1" r="586" s="1" spans="1:4">
       <c r="A586" t="s"/>
     </row>
-    <row hidden="1" r="587" s="1" spans="1:3">
+    <row hidden="1" r="587" s="1" spans="1:4">
       <c r="A587" t="s"/>
     </row>
-    <row hidden="1" r="588" s="1" spans="1:3">
+    <row hidden="1" r="588" s="1" spans="1:4">
       <c r="A588" t="s"/>
     </row>
-    <row hidden="1" r="589" s="1" spans="1:3">
+    <row hidden="1" r="589" s="1" spans="1:4">
       <c r="A589" t="s"/>
     </row>
-    <row r="590" s="1" spans="1:3">
+    <row r="590" s="1" spans="1:4">
       <c r="A590" t="s">
         <v>896</v>
       </c>
@@ -39672,23 +39928,26 @@
       <c r="C590" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row hidden="1" r="591" s="1" spans="1:3">
+      <c r="D590" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row hidden="1" r="591" s="1" spans="1:4">
       <c r="A591" t="s"/>
     </row>
-    <row hidden="1" r="592" s="1" spans="1:3">
+    <row hidden="1" r="592" s="1" spans="1:4">
       <c r="A592" t="s"/>
     </row>
-    <row hidden="1" r="593" s="1" spans="1:3">
+    <row hidden="1" r="593" s="1" spans="1:4">
       <c r="A593" t="s"/>
     </row>
-    <row hidden="1" r="594" s="1" spans="1:3">
+    <row hidden="1" r="594" s="1" spans="1:4">
       <c r="A594" t="s"/>
     </row>
-    <row hidden="1" r="595" s="1" spans="1:3">
+    <row hidden="1" r="595" s="1" spans="1:4">
       <c r="A595" t="s"/>
     </row>
-    <row r="596" s="1" spans="1:3">
+    <row r="596" s="1" spans="1:4">
       <c r="A596" t="s">
         <v>1086</v>
       </c>
@@ -39698,8 +39957,11 @@
       <c r="C596" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="597" s="1" spans="1:3">
+      <c r="D596" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="597" s="1" spans="1:4">
       <c r="A597" t="s">
         <v>1086</v>
       </c>
@@ -39709,38 +39971,41 @@
       <c r="C597" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row hidden="1" r="598" s="1" spans="1:3">
+      <c r="D597" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row hidden="1" r="598" s="1" spans="1:4">
       <c r="A598" t="s"/>
     </row>
-    <row hidden="1" r="599" s="1" spans="1:3">
+    <row hidden="1" r="599" s="1" spans="1:4">
       <c r="A599" t="s"/>
     </row>
-    <row hidden="1" r="600" s="1" spans="1:3">
+    <row hidden="1" r="600" s="1" spans="1:4">
       <c r="A600" t="s"/>
     </row>
-    <row hidden="1" r="601" s="1" spans="1:3">
+    <row hidden="1" r="601" s="1" spans="1:4">
       <c r="A601" t="s"/>
     </row>
-    <row hidden="1" r="602" s="1" spans="1:3">
+    <row hidden="1" r="602" s="1" spans="1:4">
       <c r="A602" t="s"/>
     </row>
-    <row hidden="1" r="603" s="1" spans="1:3">
+    <row hidden="1" r="603" s="1" spans="1:4">
       <c r="A603" t="s"/>
     </row>
-    <row hidden="1" r="604" s="1" spans="1:3">
+    <row hidden="1" r="604" s="1" spans="1:4">
       <c r="A604" t="s"/>
     </row>
-    <row hidden="1" r="605" s="1" spans="1:3">
+    <row hidden="1" r="605" s="1" spans="1:4">
       <c r="A605" t="s"/>
     </row>
-    <row hidden="1" r="606" s="1" spans="1:3">
+    <row hidden="1" r="606" s="1" spans="1:4">
       <c r="A606" t="s"/>
     </row>
-    <row hidden="1" r="607" s="1" spans="1:3">
+    <row hidden="1" r="607" s="1" spans="1:4">
       <c r="A607" t="s"/>
     </row>
-    <row r="608" s="1" spans="1:3">
+    <row r="608" s="1" spans="1:4">
       <c r="A608" t="s">
         <v>1103</v>
       </c>
@@ -39750,56 +40015,59 @@
       <c r="C608" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row hidden="1" r="609" s="1" spans="1:3">
+      <c r="D608" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row hidden="1" r="609" s="1" spans="1:4">
       <c r="A609" t="s"/>
     </row>
-    <row hidden="1" r="610" s="1" spans="1:3">
+    <row hidden="1" r="610" s="1" spans="1:4">
       <c r="A610" t="s"/>
     </row>
-    <row hidden="1" r="611" s="1" spans="1:3">
+    <row hidden="1" r="611" s="1" spans="1:4">
       <c r="A611" t="s"/>
     </row>
-    <row hidden="1" r="612" s="1" spans="1:3">
+    <row hidden="1" r="612" s="1" spans="1:4">
       <c r="A612" t="s"/>
     </row>
-    <row hidden="1" r="613" s="1" spans="1:3">
+    <row hidden="1" r="613" s="1" spans="1:4">
       <c r="A613" t="s"/>
     </row>
-    <row hidden="1" r="614" s="1" spans="1:3">
+    <row hidden="1" r="614" s="1" spans="1:4">
       <c r="A614" t="s"/>
     </row>
-    <row hidden="1" r="615" s="1" spans="1:3">
+    <row hidden="1" r="615" s="1" spans="1:4">
       <c r="A615" t="s"/>
     </row>
-    <row hidden="1" r="616" s="1" spans="1:3">
+    <row hidden="1" r="616" s="1" spans="1:4">
       <c r="A616" t="s"/>
     </row>
-    <row hidden="1" r="617" s="1" spans="1:3">
+    <row hidden="1" r="617" s="1" spans="1:4">
       <c r="A617" t="s"/>
     </row>
-    <row hidden="1" r="618" s="1" spans="1:3">
+    <row hidden="1" r="618" s="1" spans="1:4">
       <c r="A618" t="s"/>
     </row>
-    <row hidden="1" r="619" s="1" spans="1:3">
+    <row hidden="1" r="619" s="1" spans="1:4">
       <c r="A619" t="s"/>
     </row>
-    <row hidden="1" r="620" s="1" spans="1:3">
+    <row hidden="1" r="620" s="1" spans="1:4">
       <c r="A620" t="s"/>
     </row>
-    <row hidden="1" r="621" s="1" spans="1:3">
+    <row hidden="1" r="621" s="1" spans="1:4">
       <c r="A621" t="s"/>
     </row>
-    <row hidden="1" r="622" s="1" spans="1:3">
+    <row hidden="1" r="622" s="1" spans="1:4">
       <c r="A622" t="s"/>
     </row>
-    <row hidden="1" r="623" s="1" spans="1:3">
+    <row hidden="1" r="623" s="1" spans="1:4">
       <c r="A623" t="s"/>
     </row>
-    <row hidden="1" r="624" s="1" spans="1:3">
+    <row hidden="1" r="624" s="1" spans="1:4">
       <c r="A624" t="s"/>
     </row>
-    <row r="625" s="1" spans="1:3">
+    <row r="625" s="1" spans="1:4">
       <c r="A625" t="s">
         <v>84</v>
       </c>
@@ -39809,26 +40077,29 @@
       <c r="C625" t="s">
         <v>2880</v>
       </c>
-    </row>
-    <row hidden="1" r="626" s="1" spans="1:3">
+      <c r="D625" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row hidden="1" r="626" s="1" spans="1:4">
       <c r="A626" t="s"/>
     </row>
-    <row hidden="1" r="627" s="1" spans="1:3">
+    <row hidden="1" r="627" s="1" spans="1:4">
       <c r="A627" t="s"/>
     </row>
-    <row hidden="1" r="628" s="1" spans="1:3">
+    <row hidden="1" r="628" s="1" spans="1:4">
       <c r="A628" t="s"/>
     </row>
-    <row hidden="1" r="629" s="1" spans="1:3">
+    <row hidden="1" r="629" s="1" spans="1:4">
       <c r="A629" t="s"/>
     </row>
-    <row hidden="1" r="630" s="1" spans="1:3">
+    <row hidden="1" r="630" s="1" spans="1:4">
       <c r="A630" t="s"/>
     </row>
-    <row hidden="1" r="631" s="1" spans="1:3">
+    <row hidden="1" r="631" s="1" spans="1:4">
       <c r="A631" t="s"/>
     </row>
-    <row r="632" s="1" spans="1:3">
+    <row r="632" s="1" spans="1:4">
       <c r="A632" t="s">
         <v>84</v>
       </c>
@@ -39838,14 +40109,17 @@
       <c r="C632" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row hidden="1" r="633" s="1" spans="1:3">
+      <c r="D632" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row hidden="1" r="633" s="1" spans="1:4">
       <c r="A633" t="s"/>
     </row>
-    <row hidden="1" r="634" s="1" spans="1:3">
+    <row hidden="1" r="634" s="1" spans="1:4">
       <c r="A634" t="s"/>
     </row>
-    <row r="635" s="1" spans="1:3">
+    <row r="635" s="1" spans="1:4">
       <c r="A635" t="s">
         <v>84</v>
       </c>
@@ -39855,74 +40129,77 @@
       <c r="C635" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row hidden="1" r="636" s="1" spans="1:3">
+      <c r="D635" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row hidden="1" r="636" s="1" spans="1:4">
       <c r="A636" t="s"/>
     </row>
-    <row hidden="1" r="637" s="1" spans="1:3">
+    <row hidden="1" r="637" s="1" spans="1:4">
       <c r="A637" t="s"/>
     </row>
-    <row hidden="1" r="638" s="1" spans="1:3">
+    <row hidden="1" r="638" s="1" spans="1:4">
       <c r="A638" t="s"/>
     </row>
-    <row hidden="1" r="639" s="1" spans="1:3">
+    <row hidden="1" r="639" s="1" spans="1:4">
       <c r="A639" t="s"/>
     </row>
-    <row hidden="1" r="640" s="1" spans="1:3">
+    <row hidden="1" r="640" s="1" spans="1:4">
       <c r="A640" t="s"/>
     </row>
-    <row hidden="1" r="641" s="1" spans="1:3">
+    <row hidden="1" r="641" s="1" spans="1:4">
       <c r="A641" t="s"/>
     </row>
-    <row hidden="1" r="642" s="1" spans="1:3">
+    <row hidden="1" r="642" s="1" spans="1:4">
       <c r="A642" t="s"/>
     </row>
-    <row hidden="1" r="643" s="1" spans="1:3">
+    <row hidden="1" r="643" s="1" spans="1:4">
       <c r="A643" t="s"/>
     </row>
-    <row hidden="1" r="644" s="1" spans="1:3">
+    <row hidden="1" r="644" s="1" spans="1:4">
       <c r="A644" t="s"/>
     </row>
-    <row hidden="1" r="645" s="1" spans="1:3">
+    <row hidden="1" r="645" s="1" spans="1:4">
       <c r="A645" t="s"/>
     </row>
-    <row hidden="1" r="646" s="1" spans="1:3">
+    <row hidden="1" r="646" s="1" spans="1:4">
       <c r="A646" t="s"/>
     </row>
-    <row hidden="1" r="647" s="1" spans="1:3">
+    <row hidden="1" r="647" s="1" spans="1:4">
       <c r="A647" t="s"/>
     </row>
-    <row hidden="1" r="648" s="1" spans="1:3">
+    <row hidden="1" r="648" s="1" spans="1:4">
       <c r="A648" t="s"/>
     </row>
-    <row hidden="1" r="649" s="1" spans="1:3">
+    <row hidden="1" r="649" s="1" spans="1:4">
       <c r="A649" t="s"/>
     </row>
-    <row hidden="1" r="650" s="1" spans="1:3">
+    <row hidden="1" r="650" s="1" spans="1:4">
       <c r="A650" t="s"/>
     </row>
-    <row hidden="1" r="651" s="1" spans="1:3">
+    <row hidden="1" r="651" s="1" spans="1:4">
       <c r="A651" t="s"/>
     </row>
-    <row hidden="1" r="652" s="1" spans="1:3">
+    <row hidden="1" r="652" s="1" spans="1:4">
       <c r="A652" t="s"/>
     </row>
-    <row hidden="1" r="653" s="1" spans="1:3">
+    <row hidden="1" r="653" s="1" spans="1:4">
       <c r="A653" t="s"/>
     </row>
-    <row hidden="1" r="654" s="1" spans="1:3">
+    <row hidden="1" r="654" s="1" spans="1:4">
       <c r="A654" t="s"/>
     </row>
-    <row hidden="1" r="655" s="1" spans="1:3">
+    <row hidden="1" r="655" s="1" spans="1:4">
       <c r="A655" t="s"/>
     </row>
-    <row hidden="1" r="656" s="1" spans="1:3">
+    <row hidden="1" r="656" s="1" spans="1:4">
       <c r="A656" t="s"/>
     </row>
-    <row hidden="1" r="657" s="1" spans="1:3">
+    <row hidden="1" r="657" s="1" spans="1:4">
       <c r="A657" t="s"/>
     </row>
-    <row r="658" s="1" spans="1:3">
+    <row r="658" s="1" spans="1:4">
       <c r="A658" t="s">
         <v>1182</v>
       </c>
@@ -39932,32 +40209,35 @@
       <c r="C658" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row hidden="1" r="659" s="1" spans="1:3">
+      <c r="D658" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row hidden="1" r="659" s="1" spans="1:4">
       <c r="A659" t="s"/>
     </row>
-    <row hidden="1" r="660" s="1" spans="1:3">
+    <row hidden="1" r="660" s="1" spans="1:4">
       <c r="A660" t="s"/>
     </row>
-    <row hidden="1" r="661" s="1" spans="1:3">
+    <row hidden="1" r="661" s="1" spans="1:4">
       <c r="A661" t="s"/>
     </row>
-    <row hidden="1" r="662" s="1" spans="1:3">
+    <row hidden="1" r="662" s="1" spans="1:4">
       <c r="A662" t="s"/>
     </row>
-    <row hidden="1" r="663" s="1" spans="1:3">
+    <row hidden="1" r="663" s="1" spans="1:4">
       <c r="A663" t="s"/>
     </row>
-    <row hidden="1" r="664" s="1" spans="1:3">
+    <row hidden="1" r="664" s="1" spans="1:4">
       <c r="A664" t="s"/>
     </row>
-    <row hidden="1" r="665" s="1" spans="1:3">
+    <row hidden="1" r="665" s="1" spans="1:4">
       <c r="A665" t="s"/>
     </row>
-    <row hidden="1" r="666" s="1" spans="1:3">
+    <row hidden="1" r="666" s="1" spans="1:4">
       <c r="A666" t="s"/>
     </row>
-    <row r="667" s="1" spans="1:3">
+    <row r="667" s="1" spans="1:4">
       <c r="A667" t="s">
         <v>126</v>
       </c>
@@ -39967,20 +40247,23 @@
       <c r="C667" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row hidden="1" r="668" s="1" spans="1:3">
+      <c r="D667" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row hidden="1" r="668" s="1" spans="1:4">
       <c r="A668" t="s"/>
     </row>
-    <row hidden="1" r="669" s="1" spans="1:3">
+    <row hidden="1" r="669" s="1" spans="1:4">
       <c r="A669" t="s"/>
     </row>
-    <row hidden="1" r="670" s="1" spans="1:3">
+    <row hidden="1" r="670" s="1" spans="1:4">
       <c r="A670" t="s"/>
     </row>
-    <row hidden="1" r="671" s="1" spans="1:3">
+    <row hidden="1" r="671" s="1" spans="1:4">
       <c r="A671" t="s"/>
     </row>
-    <row r="672" s="1" spans="1:3">
+    <row r="672" s="1" spans="1:4">
       <c r="A672" t="s">
         <v>1209</v>
       </c>
@@ -39990,44 +40273,47 @@
       <c r="C672" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row hidden="1" r="673" s="1" spans="1:3">
+      <c r="D672" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row hidden="1" r="673" s="1" spans="1:4">
       <c r="A673" t="s"/>
     </row>
-    <row hidden="1" r="674" s="1" spans="1:3">
+    <row hidden="1" r="674" s="1" spans="1:4">
       <c r="A674" t="s"/>
     </row>
-    <row hidden="1" r="675" s="1" spans="1:3">
+    <row hidden="1" r="675" s="1" spans="1:4">
       <c r="A675" t="s"/>
     </row>
-    <row hidden="1" r="676" s="1" spans="1:3">
+    <row hidden="1" r="676" s="1" spans="1:4">
       <c r="A676" t="s"/>
     </row>
-    <row hidden="1" r="677" s="1" spans="1:3">
+    <row hidden="1" r="677" s="1" spans="1:4">
       <c r="A677" t="s"/>
     </row>
-    <row hidden="1" r="678" s="1" spans="1:3">
+    <row hidden="1" r="678" s="1" spans="1:4">
       <c r="A678" t="s"/>
     </row>
-    <row hidden="1" r="679" s="1" spans="1:3">
+    <row hidden="1" r="679" s="1" spans="1:4">
       <c r="A679" t="s"/>
     </row>
-    <row hidden="1" r="680" s="1" spans="1:3">
+    <row hidden="1" r="680" s="1" spans="1:4">
       <c r="A680" t="s"/>
     </row>
-    <row hidden="1" r="681" s="1" spans="1:3">
+    <row hidden="1" r="681" s="1" spans="1:4">
       <c r="A681" t="s"/>
     </row>
-    <row hidden="1" r="682" s="1" spans="1:3">
+    <row hidden="1" r="682" s="1" spans="1:4">
       <c r="A682" t="s"/>
     </row>
-    <row hidden="1" r="683" s="1" spans="1:3">
+    <row hidden="1" r="683" s="1" spans="1:4">
       <c r="A683" t="s"/>
     </row>
-    <row hidden="1" r="684" s="1" spans="1:3">
+    <row hidden="1" r="684" s="1" spans="1:4">
       <c r="A684" t="s"/>
     </row>
-    <row r="685" s="1" spans="1:3">
+    <row r="685" s="1" spans="1:4">
       <c r="A685" t="s">
         <v>192</v>
       </c>
@@ -40037,38 +40323,41 @@
       <c r="C685" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row hidden="1" r="686" s="1" spans="1:3">
+      <c r="D685" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row hidden="1" r="686" s="1" spans="1:4">
       <c r="A686" t="s"/>
     </row>
-    <row hidden="1" r="687" s="1" spans="1:3">
+    <row hidden="1" r="687" s="1" spans="1:4">
       <c r="A687" t="s"/>
     </row>
-    <row hidden="1" r="688" s="1" spans="1:3">
+    <row hidden="1" r="688" s="1" spans="1:4">
       <c r="A688" t="s"/>
     </row>
-    <row hidden="1" r="689" s="1" spans="1:3">
+    <row hidden="1" r="689" s="1" spans="1:4">
       <c r="A689" t="s"/>
     </row>
-    <row hidden="1" r="690" s="1" spans="1:3">
+    <row hidden="1" r="690" s="1" spans="1:4">
       <c r="A690" t="s"/>
     </row>
-    <row hidden="1" r="691" s="1" spans="1:3">
+    <row hidden="1" r="691" s="1" spans="1:4">
       <c r="A691" t="s"/>
     </row>
-    <row hidden="1" r="692" s="1" spans="1:3">
+    <row hidden="1" r="692" s="1" spans="1:4">
       <c r="A692" t="s"/>
     </row>
-    <row hidden="1" r="693" s="1" spans="1:3">
+    <row hidden="1" r="693" s="1" spans="1:4">
       <c r="A693" t="s"/>
     </row>
-    <row hidden="1" r="694" s="1" spans="1:3">
+    <row hidden="1" r="694" s="1" spans="1:4">
       <c r="A694" t="s"/>
     </row>
-    <row hidden="1" r="695" s="1" spans="1:3">
+    <row hidden="1" r="695" s="1" spans="1:4">
       <c r="A695" t="s"/>
     </row>
-    <row r="696" s="1" spans="1:3">
+    <row r="696" s="1" spans="1:4">
       <c r="A696" t="s">
         <v>451</v>
       </c>
@@ -40078,23 +40367,26 @@
       <c r="C696" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row hidden="1" r="697" s="1" spans="1:3">
+      <c r="D696" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row hidden="1" r="697" s="1" spans="1:4">
       <c r="A697" t="s"/>
     </row>
-    <row hidden="1" r="698" s="1" spans="1:3">
+    <row hidden="1" r="698" s="1" spans="1:4">
       <c r="A698" t="s"/>
     </row>
-    <row hidden="1" r="699" s="1" spans="1:3">
+    <row hidden="1" r="699" s="1" spans="1:4">
       <c r="A699" t="s"/>
     </row>
-    <row hidden="1" r="700" s="1" spans="1:3">
+    <row hidden="1" r="700" s="1" spans="1:4">
       <c r="A700" t="s"/>
     </row>
-    <row hidden="1" r="701" s="1" spans="1:3">
+    <row hidden="1" r="701" s="1" spans="1:4">
       <c r="A701" t="s"/>
     </row>
-    <row r="702" s="1" spans="1:3">
+    <row r="702" s="1" spans="1:4">
       <c r="A702" t="s">
         <v>402</v>
       </c>
@@ -40104,23 +40396,26 @@
       <c r="C702" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row hidden="1" r="703" s="1" spans="1:3">
+      <c r="D702" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row hidden="1" r="703" s="1" spans="1:4">
       <c r="A703" t="s"/>
     </row>
-    <row hidden="1" r="704" s="1" spans="1:3">
+    <row hidden="1" r="704" s="1" spans="1:4">
       <c r="A704" t="s"/>
     </row>
-    <row hidden="1" r="705" s="1" spans="1:3">
+    <row hidden="1" r="705" s="1" spans="1:4">
       <c r="A705" t="s"/>
     </row>
-    <row hidden="1" r="706" s="1" spans="1:3">
+    <row hidden="1" r="706" s="1" spans="1:4">
       <c r="A706" t="s"/>
     </row>
-    <row hidden="1" r="707" s="1" spans="1:3">
+    <row hidden="1" r="707" s="1" spans="1:4">
       <c r="A707" t="s"/>
     </row>
-    <row r="708" s="1" spans="1:3">
+    <row r="708" s="1" spans="1:4">
       <c r="A708" t="s">
         <v>1281</v>
       </c>
@@ -40130,32 +40425,35 @@
       <c r="C708" t="s">
         <v>2896</v>
       </c>
-    </row>
-    <row hidden="1" r="709" s="1" spans="1:3">
+      <c r="D708" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row hidden="1" r="709" s="1" spans="1:4">
       <c r="A709" t="s"/>
     </row>
-    <row hidden="1" r="710" s="1" spans="1:3">
+    <row hidden="1" r="710" s="1" spans="1:4">
       <c r="A710" t="s"/>
     </row>
-    <row hidden="1" r="711" s="1" spans="1:3">
+    <row hidden="1" r="711" s="1" spans="1:4">
       <c r="A711" t="s"/>
     </row>
-    <row hidden="1" r="712" s="1" spans="1:3">
+    <row hidden="1" r="712" s="1" spans="1:4">
       <c r="A712" t="s"/>
     </row>
-    <row hidden="1" r="713" s="1" spans="1:3">
+    <row hidden="1" r="713" s="1" spans="1:4">
       <c r="A713" t="s"/>
     </row>
-    <row hidden="1" r="714" s="1" spans="1:3">
+    <row hidden="1" r="714" s="1" spans="1:4">
       <c r="A714" t="s"/>
     </row>
-    <row hidden="1" r="715" s="1" spans="1:3">
+    <row hidden="1" r="715" s="1" spans="1:4">
       <c r="A715" t="s"/>
     </row>
-    <row hidden="1" r="716" s="1" spans="1:3">
+    <row hidden="1" r="716" s="1" spans="1:4">
       <c r="A716" t="s"/>
     </row>
-    <row r="717" s="1" spans="1:3">
+    <row r="717" s="1" spans="1:4">
       <c r="A717" t="s">
         <v>742</v>
       </c>
@@ -40165,38 +40463,41 @@
       <c r="C717" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row hidden="1" r="718" s="1" spans="1:3">
+      <c r="D717" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row hidden="1" r="718" s="1" spans="1:4">
       <c r="A718" t="s"/>
     </row>
-    <row hidden="1" r="719" s="1" spans="1:3">
+    <row hidden="1" r="719" s="1" spans="1:4">
       <c r="A719" t="s"/>
     </row>
-    <row hidden="1" r="720" s="1" spans="1:3">
+    <row hidden="1" r="720" s="1" spans="1:4">
       <c r="A720" t="s"/>
     </row>
-    <row hidden="1" r="721" s="1" spans="1:3">
+    <row hidden="1" r="721" s="1" spans="1:4">
       <c r="A721" t="s"/>
     </row>
-    <row hidden="1" r="722" s="1" spans="1:3">
+    <row hidden="1" r="722" s="1" spans="1:4">
       <c r="A722" t="s"/>
     </row>
-    <row hidden="1" r="723" s="1" spans="1:3">
+    <row hidden="1" r="723" s="1" spans="1:4">
       <c r="A723" t="s"/>
     </row>
-    <row hidden="1" r="724" s="1" spans="1:3">
+    <row hidden="1" r="724" s="1" spans="1:4">
       <c r="A724" t="s"/>
     </row>
-    <row hidden="1" r="725" s="1" spans="1:3">
+    <row hidden="1" r="725" s="1" spans="1:4">
       <c r="A725" t="s"/>
     </row>
-    <row hidden="1" r="726" s="1" spans="1:3">
+    <row hidden="1" r="726" s="1" spans="1:4">
       <c r="A726" t="s"/>
     </row>
-    <row hidden="1" r="727" s="1" spans="1:3">
+    <row hidden="1" r="727" s="1" spans="1:4">
       <c r="A727" t="s"/>
     </row>
-    <row r="728" s="1" spans="1:3">
+    <row r="728" s="1" spans="1:4">
       <c r="A728" t="s">
         <v>1320</v>
       </c>
@@ -40206,23 +40507,26 @@
       <c r="C728" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row hidden="1" r="729" s="1" spans="1:3">
+      <c r="D728" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row hidden="1" r="729" s="1" spans="1:4">
       <c r="A729" t="s"/>
     </row>
-    <row hidden="1" r="730" s="1" spans="1:3">
+    <row hidden="1" r="730" s="1" spans="1:4">
       <c r="A730" t="s"/>
     </row>
-    <row hidden="1" r="731" s="1" spans="1:3">
+    <row hidden="1" r="731" s="1" spans="1:4">
       <c r="A731" t="s"/>
     </row>
-    <row hidden="1" r="732" s="1" spans="1:3">
+    <row hidden="1" r="732" s="1" spans="1:4">
       <c r="A732" t="s"/>
     </row>
-    <row hidden="1" r="733" s="1" spans="1:3">
+    <row hidden="1" r="733" s="1" spans="1:4">
       <c r="A733" t="s"/>
     </row>
-    <row r="734" s="1" spans="1:3">
+    <row r="734" s="1" spans="1:4">
       <c r="A734" t="s">
         <v>1332</v>
       </c>
@@ -40232,17 +40536,20 @@
       <c r="C734" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row hidden="1" r="735" s="1" spans="1:3">
+      <c r="D734" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row hidden="1" r="735" s="1" spans="1:4">
       <c r="A735" t="s"/>
     </row>
-    <row hidden="1" r="736" s="1" spans="1:3">
+    <row hidden="1" r="736" s="1" spans="1:4">
       <c r="A736" t="s"/>
     </row>
-    <row hidden="1" r="737" s="1" spans="1:3">
+    <row hidden="1" r="737" s="1" spans="1:4">
       <c r="A737" t="s"/>
     </row>
-    <row r="738" s="1" spans="1:3">
+    <row r="738" s="1" spans="1:4">
       <c r="A738" t="s">
         <v>1338</v>
       </c>
@@ -40252,20 +40559,23 @@
       <c r="C738" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row hidden="1" r="739" s="1" spans="1:3">
+      <c r="D738" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row hidden="1" r="739" s="1" spans="1:4">
       <c r="A739" t="s"/>
     </row>
-    <row hidden="1" r="740" s="1" spans="1:3">
+    <row hidden="1" r="740" s="1" spans="1:4">
       <c r="A740" t="s"/>
     </row>
-    <row hidden="1" r="741" s="1" spans="1:3">
+    <row hidden="1" r="741" s="1" spans="1:4">
       <c r="A741" t="s"/>
     </row>
-    <row hidden="1" r="742" s="1" spans="1:3">
+    <row hidden="1" r="742" s="1" spans="1:4">
       <c r="A742" t="s"/>
     </row>
-    <row r="743" s="1" spans="1:3">
+    <row r="743" s="1" spans="1:4">
       <c r="A743" t="s">
         <v>417</v>
       </c>
@@ -40275,95 +40585,98 @@
       <c r="C743" t="s">
         <v>2906</v>
       </c>
-    </row>
-    <row hidden="1" r="744" s="1" spans="1:3">
+      <c r="D743" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row hidden="1" r="744" s="1" spans="1:4">
       <c r="A744" t="s"/>
     </row>
-    <row hidden="1" r="745" s="1" spans="1:3">
+    <row hidden="1" r="745" s="1" spans="1:4">
       <c r="A745" t="s"/>
     </row>
-    <row hidden="1" r="746" s="1" spans="1:3">
+    <row hidden="1" r="746" s="1" spans="1:4">
       <c r="A746" t="s"/>
     </row>
-    <row hidden="1" r="747" s="1" spans="1:3">
+    <row hidden="1" r="747" s="1" spans="1:4">
       <c r="A747" t="s"/>
     </row>
-    <row hidden="1" r="748" s="1" spans="1:3">
+    <row hidden="1" r="748" s="1" spans="1:4">
       <c r="A748" t="s"/>
     </row>
-    <row hidden="1" r="749" s="1" spans="1:3">
+    <row hidden="1" r="749" s="1" spans="1:4">
       <c r="A749" t="s"/>
     </row>
-    <row hidden="1" r="750" s="1" spans="1:3">
+    <row hidden="1" r="750" s="1" spans="1:4">
       <c r="A750" t="s"/>
     </row>
-    <row hidden="1" r="751" s="1" spans="1:3">
+    <row hidden="1" r="751" s="1" spans="1:4">
       <c r="A751" t="s"/>
     </row>
-    <row hidden="1" r="752" s="1" spans="1:3">
+    <row hidden="1" r="752" s="1" spans="1:4">
       <c r="A752" t="s"/>
     </row>
-    <row hidden="1" r="753" s="1" spans="1:3">
+    <row hidden="1" r="753" s="1" spans="1:4">
       <c r="A753" t="s"/>
     </row>
-    <row hidden="1" r="754" s="1" spans="1:3">
+    <row hidden="1" r="754" s="1" spans="1:4">
       <c r="A754" t="s"/>
     </row>
-    <row hidden="1" r="755" s="1" spans="1:3">
+    <row hidden="1" r="755" s="1" spans="1:4">
       <c r="A755" t="s"/>
     </row>
-    <row hidden="1" r="756" s="1" spans="1:3">
+    <row hidden="1" r="756" s="1" spans="1:4">
       <c r="A756" t="s"/>
     </row>
-    <row hidden="1" r="757" s="1" spans="1:3">
+    <row hidden="1" r="757" s="1" spans="1:4">
       <c r="A757" t="s"/>
     </row>
-    <row hidden="1" r="758" s="1" spans="1:3">
+    <row hidden="1" r="758" s="1" spans="1:4">
       <c r="A758" t="s"/>
     </row>
-    <row hidden="1" r="759" s="1" spans="1:3">
+    <row hidden="1" r="759" s="1" spans="1:4">
       <c r="A759" t="s"/>
     </row>
-    <row hidden="1" r="760" s="1" spans="1:3">
+    <row hidden="1" r="760" s="1" spans="1:4">
       <c r="A760" t="s"/>
     </row>
-    <row hidden="1" r="761" s="1" spans="1:3">
+    <row hidden="1" r="761" s="1" spans="1:4">
       <c r="A761" t="s"/>
     </row>
-    <row hidden="1" r="762" s="1" spans="1:3">
+    <row hidden="1" r="762" s="1" spans="1:4">
       <c r="A762" t="s"/>
     </row>
-    <row hidden="1" r="763" s="1" spans="1:3">
+    <row hidden="1" r="763" s="1" spans="1:4">
       <c r="A763" t="s"/>
     </row>
-    <row hidden="1" r="764" s="1" spans="1:3">
+    <row hidden="1" r="764" s="1" spans="1:4">
       <c r="A764" t="s"/>
     </row>
-    <row hidden="1" r="765" s="1" spans="1:3">
+    <row hidden="1" r="765" s="1" spans="1:4">
       <c r="A765" t="s"/>
     </row>
-    <row hidden="1" r="766" s="1" spans="1:3">
+    <row hidden="1" r="766" s="1" spans="1:4">
       <c r="A766" t="s"/>
     </row>
-    <row hidden="1" r="767" s="1" spans="1:3">
+    <row hidden="1" r="767" s="1" spans="1:4">
       <c r="A767" t="s"/>
     </row>
-    <row hidden="1" r="768" s="1" spans="1:3">
+    <row hidden="1" r="768" s="1" spans="1:4">
       <c r="A768" t="s"/>
     </row>
-    <row hidden="1" r="769" s="1" spans="1:3">
+    <row hidden="1" r="769" s="1" spans="1:4">
       <c r="A769" t="s"/>
     </row>
-    <row hidden="1" r="770" s="1" spans="1:3">
+    <row hidden="1" r="770" s="1" spans="1:4">
       <c r="A770" t="s"/>
     </row>
-    <row hidden="1" r="771" s="1" spans="1:3">
+    <row hidden="1" r="771" s="1" spans="1:4">
       <c r="A771" t="s"/>
     </row>
-    <row hidden="1" r="772" s="1" spans="1:3">
+    <row hidden="1" r="772" s="1" spans="1:4">
       <c r="A772" t="s"/>
     </row>
-    <row r="773" s="1" spans="1:3">
+    <row r="773" s="1" spans="1:4">
       <c r="A773" t="s">
         <v>1407</v>
       </c>
@@ -40373,8 +40686,11 @@
       <c r="C773" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="774" s="1" spans="1:3">
+      <c r="D773" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="774" s="1" spans="1:4">
       <c r="A774" t="s">
         <v>979</v>
       </c>
@@ -40384,32 +40700,35 @@
       <c r="C774" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row hidden="1" r="775" s="1" spans="1:3">
+      <c r="D774" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row hidden="1" r="775" s="1" spans="1:4">
       <c r="A775" t="s"/>
     </row>
-    <row hidden="1" r="776" s="1" spans="1:3">
+    <row hidden="1" r="776" s="1" spans="1:4">
       <c r="A776" t="s"/>
     </row>
-    <row hidden="1" r="777" s="1" spans="1:3">
+    <row hidden="1" r="777" s="1" spans="1:4">
       <c r="A777" t="s"/>
     </row>
-    <row hidden="1" r="778" s="1" spans="1:3">
+    <row hidden="1" r="778" s="1" spans="1:4">
       <c r="A778" t="s"/>
     </row>
-    <row hidden="1" r="779" s="1" spans="1:3">
+    <row hidden="1" r="779" s="1" spans="1:4">
       <c r="A779" t="s"/>
     </row>
-    <row hidden="1" r="780" s="1" spans="1:3">
+    <row hidden="1" r="780" s="1" spans="1:4">
       <c r="A780" t="s"/>
     </row>
-    <row hidden="1" r="781" s="1" spans="1:3">
+    <row hidden="1" r="781" s="1" spans="1:4">
       <c r="A781" t="s"/>
     </row>
-    <row hidden="1" r="782" s="1" spans="1:3">
+    <row hidden="1" r="782" s="1" spans="1:4">
       <c r="A782" t="s"/>
     </row>
-    <row r="783" s="1" spans="1:3">
+    <row r="783" s="1" spans="1:4">
       <c r="A783" t="s">
         <v>1425</v>
       </c>
@@ -40419,8 +40738,11 @@
       <c r="C783" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="784" s="1" spans="1:3">
+      <c r="D783" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="784" s="1" spans="1:4">
       <c r="A784" t="s">
         <v>1425</v>
       </c>
@@ -40428,35 +40750,38 @@
         <v>2913</v>
       </c>
       <c r="C784" t="s"/>
-    </row>
-    <row hidden="1" r="785" s="1" spans="1:3">
+      <c r="D784" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row hidden="1" r="785" s="1" spans="1:4">
       <c r="A785" t="s"/>
     </row>
-    <row hidden="1" r="786" s="1" spans="1:3">
+    <row hidden="1" r="786" s="1" spans="1:4">
       <c r="A786" t="s"/>
     </row>
-    <row hidden="1" r="787" s="1" spans="1:3">
+    <row hidden="1" r="787" s="1" spans="1:4">
       <c r="A787" t="s"/>
     </row>
-    <row hidden="1" r="788" s="1" spans="1:3">
+    <row hidden="1" r="788" s="1" spans="1:4">
       <c r="A788" t="s"/>
     </row>
-    <row hidden="1" r="789" s="1" spans="1:3">
+    <row hidden="1" r="789" s="1" spans="1:4">
       <c r="A789" t="s"/>
     </row>
-    <row hidden="1" r="790" s="1" spans="1:3">
+    <row hidden="1" r="790" s="1" spans="1:4">
       <c r="A790" t="s"/>
     </row>
-    <row hidden="1" r="791" s="1" spans="1:3">
+    <row hidden="1" r="791" s="1" spans="1:4">
       <c r="A791" t="s"/>
     </row>
-    <row hidden="1" r="792" s="1" spans="1:3">
+    <row hidden="1" r="792" s="1" spans="1:4">
       <c r="A792" t="s"/>
     </row>
-    <row hidden="1" r="793" s="1" spans="1:3">
+    <row hidden="1" r="793" s="1" spans="1:4">
       <c r="A793" t="s"/>
     </row>
-    <row r="794" s="1" spans="1:3">
+    <row r="794" s="1" spans="1:4">
       <c r="A794" t="s">
         <v>782</v>
       </c>
@@ -40466,29 +40791,32 @@
       <c r="C794" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row hidden="1" r="795" s="1" spans="1:3">
+      <c r="D794" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row hidden="1" r="795" s="1" spans="1:4">
       <c r="A795" t="s"/>
     </row>
-    <row hidden="1" r="796" s="1" spans="1:3">
+    <row hidden="1" r="796" s="1" spans="1:4">
       <c r="A796" t="s"/>
     </row>
-    <row hidden="1" r="797" s="1" spans="1:3">
+    <row hidden="1" r="797" s="1" spans="1:4">
       <c r="A797" t="s"/>
     </row>
-    <row hidden="1" r="798" s="1" spans="1:3">
+    <row hidden="1" r="798" s="1" spans="1:4">
       <c r="A798" t="s"/>
     </row>
-    <row hidden="1" r="799" s="1" spans="1:3">
+    <row hidden="1" r="799" s="1" spans="1:4">
       <c r="A799" t="s"/>
     </row>
-    <row hidden="1" r="800" s="1" spans="1:3">
+    <row hidden="1" r="800" s="1" spans="1:4">
       <c r="A800" t="s"/>
     </row>
-    <row hidden="1" r="801" s="1" spans="1:3">
+    <row hidden="1" r="801" s="1" spans="1:4">
       <c r="A801" t="s"/>
     </row>
-    <row r="802" s="1" spans="1:3">
+    <row r="802" s="1" spans="1:4">
       <c r="A802" t="s">
         <v>1466</v>
       </c>
@@ -40498,20 +40826,23 @@
       <c r="C802" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row hidden="1" r="803" s="1" spans="1:3">
+      <c r="D802" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row hidden="1" r="803" s="1" spans="1:4">
       <c r="A803" t="s"/>
     </row>
-    <row hidden="1" r="804" s="1" spans="1:3">
+    <row hidden="1" r="804" s="1" spans="1:4">
       <c r="A804" t="s"/>
     </row>
-    <row hidden="1" r="805" s="1" spans="1:3">
+    <row hidden="1" r="805" s="1" spans="1:4">
       <c r="A805" t="s"/>
     </row>
-    <row hidden="1" r="806" s="1" spans="1:3">
+    <row hidden="1" r="806" s="1" spans="1:4">
       <c r="A806" t="s"/>
     </row>
-    <row r="807" s="1" spans="1:3">
+    <row r="807" s="1" spans="1:4">
       <c r="A807" t="s">
         <v>1479</v>
       </c>
@@ -40521,35 +40852,38 @@
       <c r="C807" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row hidden="1" r="808" s="1" spans="1:3">
+      <c r="D807" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row hidden="1" r="808" s="1" spans="1:4">
       <c r="A808" t="s"/>
     </row>
-    <row hidden="1" r="809" s="1" spans="1:3">
+    <row hidden="1" r="809" s="1" spans="1:4">
       <c r="A809" t="s"/>
     </row>
-    <row hidden="1" r="810" s="1" spans="1:3">
+    <row hidden="1" r="810" s="1" spans="1:4">
       <c r="A810" t="s"/>
     </row>
-    <row hidden="1" r="811" s="1" spans="1:3">
+    <row hidden="1" r="811" s="1" spans="1:4">
       <c r="A811" t="s"/>
     </row>
-    <row hidden="1" r="812" s="1" spans="1:3">
+    <row hidden="1" r="812" s="1" spans="1:4">
       <c r="A812" t="s"/>
     </row>
-    <row hidden="1" r="813" s="1" spans="1:3">
+    <row hidden="1" r="813" s="1" spans="1:4">
       <c r="A813" t="s"/>
     </row>
-    <row hidden="1" r="814" s="1" spans="1:3">
+    <row hidden="1" r="814" s="1" spans="1:4">
       <c r="A814" t="s"/>
     </row>
-    <row hidden="1" r="815" s="1" spans="1:3">
+    <row hidden="1" r="815" s="1" spans="1:4">
       <c r="A815" t="s"/>
     </row>
-    <row hidden="1" r="816" s="1" spans="1:3">
+    <row hidden="1" r="816" s="1" spans="1:4">
       <c r="A816" t="s"/>
     </row>
-    <row r="817" s="1" spans="1:3">
+    <row r="817" s="1" spans="1:4">
       <c r="A817" t="s">
         <v>1503</v>
       </c>
@@ -40559,26 +40893,29 @@
       <c r="C817" t="s">
         <v>2921</v>
       </c>
-    </row>
-    <row hidden="1" r="818" s="1" spans="1:3">
+      <c r="D817" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row hidden="1" r="818" s="1" spans="1:4">
       <c r="A818" t="s"/>
     </row>
-    <row hidden="1" r="819" s="1" spans="1:3">
+    <row hidden="1" r="819" s="1" spans="1:4">
       <c r="A819" t="s"/>
     </row>
-    <row hidden="1" r="820" s="1" spans="1:3">
+    <row hidden="1" r="820" s="1" spans="1:4">
       <c r="A820" t="s"/>
     </row>
-    <row hidden="1" r="821" s="1" spans="1:3">
+    <row hidden="1" r="821" s="1" spans="1:4">
       <c r="A821" t="s"/>
     </row>
-    <row hidden="1" r="822" s="1" spans="1:3">
+    <row hidden="1" r="822" s="1" spans="1:4">
       <c r="A822" t="s"/>
     </row>
-    <row hidden="1" r="823" s="1" spans="1:3">
+    <row hidden="1" r="823" s="1" spans="1:4">
       <c r="A823" t="s"/>
     </row>
-    <row r="824" s="1" spans="1:3">
+    <row r="824" s="1" spans="1:4">
       <c r="A824" t="s">
         <v>1517</v>
       </c>
@@ -40588,23 +40925,26 @@
       <c r="C824" t="s">
         <v>2923</v>
       </c>
-    </row>
-    <row hidden="1" r="825" s="1" spans="1:3">
+      <c r="D824" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row hidden="1" r="825" s="1" spans="1:4">
       <c r="A825" t="s"/>
     </row>
-    <row hidden="1" r="826" s="1" spans="1:3">
+    <row hidden="1" r="826" s="1" spans="1:4">
       <c r="A826" t="s"/>
     </row>
-    <row hidden="1" r="827" s="1" spans="1:3">
+    <row hidden="1" r="827" s="1" spans="1:4">
       <c r="A827" t="s"/>
     </row>
-    <row hidden="1" r="828" s="1" spans="1:3">
+    <row hidden="1" r="828" s="1" spans="1:4">
       <c r="A828" t="s"/>
     </row>
-    <row hidden="1" r="829" s="1" spans="1:3">
+    <row hidden="1" r="829" s="1" spans="1:4">
       <c r="A829" t="s"/>
     </row>
-    <row r="830" s="1" spans="1:3">
+    <row r="830" s="1" spans="1:4">
       <c r="A830" t="s">
         <v>345</v>
       </c>
@@ -40614,29 +40954,32 @@
       <c r="C830" t="s">
         <v>2925</v>
       </c>
-    </row>
-    <row hidden="1" r="831" s="1" spans="1:3">
+      <c r="D830" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row hidden="1" r="831" s="1" spans="1:4">
       <c r="A831" t="s"/>
     </row>
-    <row hidden="1" r="832" s="1" spans="1:3">
+    <row hidden="1" r="832" s="1" spans="1:4">
       <c r="A832" t="s"/>
     </row>
-    <row hidden="1" r="833" s="1" spans="1:3">
+    <row hidden="1" r="833" s="1" spans="1:4">
       <c r="A833" t="s"/>
     </row>
-    <row hidden="1" r="834" s="1" spans="1:3">
+    <row hidden="1" r="834" s="1" spans="1:4">
       <c r="A834" t="s"/>
     </row>
-    <row hidden="1" r="835" s="1" spans="1:3">
+    <row hidden="1" r="835" s="1" spans="1:4">
       <c r="A835" t="s"/>
     </row>
-    <row hidden="1" r="836" s="1" spans="1:3">
+    <row hidden="1" r="836" s="1" spans="1:4">
       <c r="A836" t="s"/>
     </row>
-    <row hidden="1" r="837" s="1" spans="1:3">
+    <row hidden="1" r="837" s="1" spans="1:4">
       <c r="A837" t="s"/>
     </row>
-    <row r="838" s="1" spans="1:3">
+    <row r="838" s="1" spans="1:4">
       <c r="A838" t="s">
         <v>1544</v>
       </c>
@@ -40646,14 +40989,17 @@
       <c r="C838" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row hidden="1" r="839" s="1" spans="1:3">
+      <c r="D838" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row hidden="1" r="839" s="1" spans="1:4">
       <c r="A839" t="s"/>
     </row>
-    <row hidden="1" r="840" s="1" spans="1:3">
+    <row hidden="1" r="840" s="1" spans="1:4">
       <c r="A840" t="s"/>
     </row>
-    <row r="841" s="1" spans="1:3">
+    <row r="841" s="1" spans="1:4">
       <c r="A841" t="s">
         <v>1544</v>
       </c>
@@ -40663,35 +41009,38 @@
       <c r="C841" t="s">
         <v>2927</v>
       </c>
-    </row>
-    <row hidden="1" r="842" s="1" spans="1:3">
+      <c r="D841" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row hidden="1" r="842" s="1" spans="1:4">
       <c r="A842" t="s"/>
     </row>
-    <row hidden="1" r="843" s="1" spans="1:3">
+    <row hidden="1" r="843" s="1" spans="1:4">
       <c r="A843" t="s"/>
     </row>
-    <row hidden="1" r="844" s="1" spans="1:3">
+    <row hidden="1" r="844" s="1" spans="1:4">
       <c r="A844" t="s"/>
     </row>
-    <row hidden="1" r="845" s="1" spans="1:3">
+    <row hidden="1" r="845" s="1" spans="1:4">
       <c r="A845" t="s"/>
     </row>
-    <row hidden="1" r="846" s="1" spans="1:3">
+    <row hidden="1" r="846" s="1" spans="1:4">
       <c r="A846" t="s"/>
     </row>
-    <row hidden="1" r="847" s="1" spans="1:3">
+    <row hidden="1" r="847" s="1" spans="1:4">
       <c r="A847" t="s"/>
     </row>
-    <row hidden="1" r="848" s="1" spans="1:3">
+    <row hidden="1" r="848" s="1" spans="1:4">
       <c r="A848" t="s"/>
     </row>
-    <row hidden="1" r="849" s="1" spans="1:3">
+    <row hidden="1" r="849" s="1" spans="1:4">
       <c r="A849" t="s"/>
     </row>
-    <row hidden="1" r="850" s="1" spans="1:3">
+    <row hidden="1" r="850" s="1" spans="1:4">
       <c r="A850" t="s"/>
     </row>
-    <row r="851" s="1" spans="1:3">
+    <row r="851" s="1" spans="1:4">
       <c r="A851" t="s">
         <v>1570</v>
       </c>
@@ -40699,122 +41048,125 @@
         <v>2928</v>
       </c>
       <c r="C851" t="s"/>
-    </row>
-    <row hidden="1" r="852" s="1" spans="1:3">
+      <c r="D851" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row hidden="1" r="852" s="1" spans="1:4">
       <c r="A852" t="s"/>
     </row>
-    <row hidden="1" r="853" s="1" spans="1:3">
+    <row hidden="1" r="853" s="1" spans="1:4">
       <c r="A853" t="s"/>
     </row>
-    <row hidden="1" r="854" s="1" spans="1:3">
+    <row hidden="1" r="854" s="1" spans="1:4">
       <c r="A854" t="s"/>
     </row>
-    <row hidden="1" r="855" s="1" spans="1:3">
+    <row hidden="1" r="855" s="1" spans="1:4">
       <c r="A855" t="s"/>
     </row>
-    <row hidden="1" r="856" s="1" spans="1:3">
+    <row hidden="1" r="856" s="1" spans="1:4">
       <c r="A856" t="s"/>
     </row>
-    <row hidden="1" r="857" s="1" spans="1:3">
+    <row hidden="1" r="857" s="1" spans="1:4">
       <c r="A857" t="s"/>
     </row>
-    <row hidden="1" r="858" s="1" spans="1:3">
+    <row hidden="1" r="858" s="1" spans="1:4">
       <c r="A858" t="s"/>
     </row>
-    <row hidden="1" r="859" s="1" spans="1:3">
+    <row hidden="1" r="859" s="1" spans="1:4">
       <c r="A859" t="s"/>
     </row>
-    <row hidden="1" r="860" s="1" spans="1:3">
+    <row hidden="1" r="860" s="1" spans="1:4">
       <c r="A860" t="s"/>
     </row>
-    <row hidden="1" r="861" s="1" spans="1:3">
+    <row hidden="1" r="861" s="1" spans="1:4">
       <c r="A861" t="s"/>
     </row>
-    <row hidden="1" r="862" s="1" spans="1:3">
+    <row hidden="1" r="862" s="1" spans="1:4">
       <c r="A862" t="s"/>
     </row>
-    <row hidden="1" r="863" s="1" spans="1:3">
+    <row hidden="1" r="863" s="1" spans="1:4">
       <c r="A863" t="s"/>
     </row>
-    <row hidden="1" r="864" s="1" spans="1:3">
+    <row hidden="1" r="864" s="1" spans="1:4">
       <c r="A864" t="s"/>
     </row>
-    <row hidden="1" r="865" s="1" spans="1:3">
+    <row hidden="1" r="865" s="1" spans="1:4">
       <c r="A865" t="s"/>
     </row>
-    <row hidden="1" r="866" s="1" spans="1:3">
+    <row hidden="1" r="866" s="1" spans="1:4">
       <c r="A866" t="s"/>
     </row>
-    <row hidden="1" r="867" s="1" spans="1:3">
+    <row hidden="1" r="867" s="1" spans="1:4">
       <c r="A867" t="s"/>
     </row>
-    <row hidden="1" r="868" s="1" spans="1:3">
+    <row hidden="1" r="868" s="1" spans="1:4">
       <c r="A868" t="s"/>
     </row>
-    <row hidden="1" r="869" s="1" spans="1:3">
+    <row hidden="1" r="869" s="1" spans="1:4">
       <c r="A869" t="s"/>
     </row>
-    <row hidden="1" r="870" s="1" spans="1:3">
+    <row hidden="1" r="870" s="1" spans="1:4">
       <c r="A870" t="s"/>
     </row>
-    <row hidden="1" r="871" s="1" spans="1:3">
+    <row hidden="1" r="871" s="1" spans="1:4">
       <c r="A871" t="s"/>
     </row>
-    <row hidden="1" r="872" s="1" spans="1:3">
+    <row hidden="1" r="872" s="1" spans="1:4">
       <c r="A872" t="s"/>
     </row>
-    <row hidden="1" r="873" s="1" spans="1:3">
+    <row hidden="1" r="873" s="1" spans="1:4">
       <c r="A873" t="s"/>
     </row>
-    <row hidden="1" r="874" s="1" spans="1:3">
+    <row hidden="1" r="874" s="1" spans="1:4">
       <c r="A874" t="s"/>
     </row>
-    <row hidden="1" r="875" s="1" spans="1:3">
+    <row hidden="1" r="875" s="1" spans="1:4">
       <c r="A875" t="s"/>
     </row>
-    <row hidden="1" r="876" s="1" spans="1:3">
+    <row hidden="1" r="876" s="1" spans="1:4">
       <c r="A876" t="s"/>
     </row>
-    <row hidden="1" r="877" s="1" spans="1:3">
+    <row hidden="1" r="877" s="1" spans="1:4">
       <c r="A877" t="s"/>
     </row>
-    <row hidden="1" r="878" s="1" spans="1:3">
+    <row hidden="1" r="878" s="1" spans="1:4">
       <c r="A878" t="s"/>
     </row>
-    <row hidden="1" r="879" s="1" spans="1:3">
+    <row hidden="1" r="879" s="1" spans="1:4">
       <c r="A879" t="s"/>
     </row>
-    <row hidden="1" r="880" s="1" spans="1:3">
+    <row hidden="1" r="880" s="1" spans="1:4">
       <c r="A880" t="s"/>
     </row>
-    <row hidden="1" r="881" s="1" spans="1:3">
+    <row hidden="1" r="881" s="1" spans="1:4">
       <c r="A881" t="s"/>
     </row>
-    <row hidden="1" r="882" s="1" spans="1:3">
+    <row hidden="1" r="882" s="1" spans="1:4">
       <c r="A882" t="s"/>
     </row>
-    <row hidden="1" r="883" s="1" spans="1:3">
+    <row hidden="1" r="883" s="1" spans="1:4">
       <c r="A883" t="s"/>
     </row>
-    <row hidden="1" r="884" s="1" spans="1:3">
+    <row hidden="1" r="884" s="1" spans="1:4">
       <c r="A884" t="s"/>
     </row>
-    <row hidden="1" r="885" s="1" spans="1:3">
+    <row hidden="1" r="885" s="1" spans="1:4">
       <c r="A885" t="s"/>
     </row>
-    <row hidden="1" r="886" s="1" spans="1:3">
+    <row hidden="1" r="886" s="1" spans="1:4">
       <c r="A886" t="s"/>
     </row>
-    <row hidden="1" r="887" s="1" spans="1:3">
+    <row hidden="1" r="887" s="1" spans="1:4">
       <c r="A887" t="s"/>
     </row>
-    <row hidden="1" r="888" s="1" spans="1:3">
+    <row hidden="1" r="888" s="1" spans="1:4">
       <c r="A888" t="s"/>
     </row>
-    <row hidden="1" r="889" s="1" spans="1:3">
+    <row hidden="1" r="889" s="1" spans="1:4">
       <c r="A889" t="s"/>
     </row>
-    <row r="890" s="1" spans="1:3">
+    <row r="890" s="1" spans="1:4">
       <c r="A890" t="s">
         <v>742</v>
       </c>
@@ -40824,41 +41176,44 @@
       <c r="C890" t="s">
         <v>2930</v>
       </c>
-    </row>
-    <row hidden="1" r="891" s="1" spans="1:3">
+      <c r="D890" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row hidden="1" r="891" s="1" spans="1:4">
       <c r="A891" t="s"/>
     </row>
-    <row hidden="1" r="892" s="1" spans="1:3">
+    <row hidden="1" r="892" s="1" spans="1:4">
       <c r="A892" t="s"/>
     </row>
-    <row hidden="1" r="893" s="1" spans="1:3">
+    <row hidden="1" r="893" s="1" spans="1:4">
       <c r="A893" t="s"/>
     </row>
-    <row hidden="1" r="894" s="1" spans="1:3">
+    <row hidden="1" r="894" s="1" spans="1:4">
       <c r="A894" t="s"/>
     </row>
-    <row hidden="1" r="895" s="1" spans="1:3">
+    <row hidden="1" r="895" s="1" spans="1:4">
       <c r="A895" t="s"/>
     </row>
-    <row hidden="1" r="896" s="1" spans="1:3">
+    <row hidden="1" r="896" s="1" spans="1:4">
       <c r="A896" t="s"/>
     </row>
-    <row hidden="1" r="897" s="1" spans="1:3">
+    <row hidden="1" r="897" s="1" spans="1:4">
       <c r="A897" t="s"/>
     </row>
-    <row hidden="1" r="898" s="1" spans="1:3">
+    <row hidden="1" r="898" s="1" spans="1:4">
       <c r="A898" t="s"/>
     </row>
-    <row hidden="1" r="899" s="1" spans="1:3">
+    <row hidden="1" r="899" s="1" spans="1:4">
       <c r="A899" t="s"/>
     </row>
-    <row hidden="1" r="900" s="1" spans="1:3">
+    <row hidden="1" r="900" s="1" spans="1:4">
       <c r="A900" t="s"/>
     </row>
-    <row hidden="1" r="901" s="1" spans="1:3">
+    <row hidden="1" r="901" s="1" spans="1:4">
       <c r="A901" t="s"/>
     </row>
-    <row r="902" s="1" spans="1:3">
+    <row r="902" s="1" spans="1:4">
       <c r="A902" t="s">
         <v>1677</v>
       </c>
@@ -40868,32 +41223,35 @@
       <c r="C902" t="s">
         <v>2932</v>
       </c>
-    </row>
-    <row hidden="1" r="903" s="1" spans="1:3">
+      <c r="D902" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row hidden="1" r="903" s="1" spans="1:4">
       <c r="A903" t="s"/>
     </row>
-    <row hidden="1" r="904" s="1" spans="1:3">
+    <row hidden="1" r="904" s="1" spans="1:4">
       <c r="A904" t="s"/>
     </row>
-    <row hidden="1" r="905" s="1" spans="1:3">
+    <row hidden="1" r="905" s="1" spans="1:4">
       <c r="A905" t="s"/>
     </row>
-    <row hidden="1" r="906" s="1" spans="1:3">
+    <row hidden="1" r="906" s="1" spans="1:4">
       <c r="A906" t="s"/>
     </row>
-    <row hidden="1" r="907" s="1" spans="1:3">
+    <row hidden="1" r="907" s="1" spans="1:4">
       <c r="A907" t="s"/>
     </row>
-    <row hidden="1" r="908" s="1" spans="1:3">
+    <row hidden="1" r="908" s="1" spans="1:4">
       <c r="A908" t="s"/>
     </row>
-    <row hidden="1" r="909" s="1" spans="1:3">
+    <row hidden="1" r="909" s="1" spans="1:4">
       <c r="A909" t="s"/>
     </row>
-    <row hidden="1" r="910" s="1" spans="1:3">
+    <row hidden="1" r="910" s="1" spans="1:4">
       <c r="A910" t="s"/>
     </row>
-    <row hidden="1" r="911" s="1" spans="1:3">
+    <row hidden="1" r="911" s="1" spans="1:4">
       <c r="A911" t="s"/>
     </row>
   </sheetData>
